--- a/raw_data/20200818_saline/20200818_Sensor1_Test_60.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_60.xlsx
@@ -1,553 +1,969 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B52AFC-6BCA-4472-B13A-EED943C400C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>53288.249607</v>
+        <v>53288.249606999998</v>
       </c>
       <c r="B2" s="1">
         <v>14.802292</v>
       </c>
       <c r="C2" s="1">
-        <v>898.958000</v>
+        <v>898.95799999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-198.292000</v>
+        <v>-198.292</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>53298.617340</v>
+        <v>53298.617339999997</v>
       </c>
       <c r="G2" s="1">
         <v>14.805171</v>
       </c>
       <c r="H2" s="1">
-        <v>916.628000</v>
+        <v>916.62800000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.320000</v>
+        <v>-168.32</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>53309.080486</v>
+        <v>53309.080485999999</v>
       </c>
       <c r="L2" s="1">
         <v>14.808078</v>
       </c>
       <c r="M2" s="1">
-        <v>939.697000</v>
+        <v>939.697</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.761000</v>
+        <v>-119.761</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>53319.568849</v>
+        <v>53319.568849000003</v>
       </c>
       <c r="Q2" s="1">
         <v>14.810991</v>
       </c>
       <c r="R2" s="1">
-        <v>946.645000</v>
+        <v>946.64499999999998</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.827000</v>
+        <v>-103.827</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>53330.477363</v>
+        <v>53330.477362999998</v>
       </c>
       <c r="V2" s="1">
         <v>14.814021</v>
       </c>
       <c r="W2" s="1">
-        <v>953.554000</v>
+        <v>953.55399999999997</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.940200</v>
+        <v>-88.940200000000004</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>53340.937028</v>
@@ -556,28 +972,28 @@
         <v>14.816927</v>
       </c>
       <c r="AB2" s="1">
-        <v>960.784000</v>
+        <v>960.78399999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.376400</v>
+        <v>-77.376400000000004</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>53351.866343</v>
+        <v>53351.866343000002</v>
       </c>
       <c r="AF2" s="1">
         <v>14.819963</v>
       </c>
       <c r="AG2" s="1">
-        <v>965.511000</v>
+        <v>965.51099999999997</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.210000</v>
+        <v>-75.209999999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>53362.256535</v>
@@ -586,315 +1002,315 @@
         <v>14.822849</v>
       </c>
       <c r="AL2" s="1">
-        <v>972.846000</v>
+        <v>972.846</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.959000</v>
+        <v>-79.959000000000003</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>53372.821353</v>
+        <v>53372.821352999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>14.825784</v>
+        <v>14.825784000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>981.015000</v>
+        <v>981.01499999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.592800</v>
+        <v>-91.592799999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>53384.238235</v>
+        <v>53384.238234999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>14.828955</v>
+        <v>14.828955000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>990.997000</v>
+        <v>990.99699999999996</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.365000</v>
+        <v>-109.36499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>53395.358540</v>
+        <v>53395.358540000001</v>
       </c>
       <c r="AZ2" s="1">
         <v>14.832044</v>
       </c>
       <c r="BA2" s="1">
-        <v>999.356000</v>
+        <v>999.35599999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.045000</v>
+        <v>-125.045</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>53406.708492</v>
+        <v>53406.708491999998</v>
       </c>
       <c r="BE2" s="1">
-        <v>14.835197</v>
+        <v>14.835197000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1038.540000</v>
+        <v>1038.54</v>
       </c>
       <c r="BG2" s="1">
-        <v>-196.957000</v>
+        <v>-196.95699999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>53417.549092</v>
+        <v>53417.549092000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>14.838208</v>
       </c>
       <c r="BK2" s="1">
-        <v>1105.770000</v>
+        <v>1105.77</v>
       </c>
       <c r="BL2" s="1">
-        <v>-313.108000</v>
+        <v>-313.108</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>53428.691679</v>
+        <v>53428.691679000003</v>
       </c>
       <c r="BO2" s="1">
         <v>14.841303</v>
       </c>
       <c r="BP2" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-495.635000</v>
+        <v>-495.63499999999999</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>53439.425138</v>
+        <v>53439.425137999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>14.844285</v>
+        <v>14.844284999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1336.550000</v>
+        <v>1336.55</v>
       </c>
       <c r="BV2" s="1">
-        <v>-695.689000</v>
+        <v>-695.68899999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>53450.135239</v>
+        <v>53450.135239000003</v>
       </c>
       <c r="BY2" s="1">
-        <v>14.847260</v>
+        <v>14.84726</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1472.410000</v>
+        <v>1472.41</v>
       </c>
       <c r="CA2" s="1">
-        <v>-908.808000</v>
+        <v>-908.80799999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>53461.085894</v>
+        <v>53461.085894000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>14.850302</v>
+        <v>14.850301999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1828.200000</v>
+        <v>1828.2</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1414.740000</v>
+        <v>-1414.74</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>53288.638857</v>
+        <v>53288.638856999998</v>
       </c>
       <c r="B3" s="1">
-        <v>14.802400</v>
+        <v>14.8024</v>
       </c>
       <c r="C3" s="1">
-        <v>899.052000</v>
+        <v>899.05200000000002</v>
       </c>
       <c r="D3" s="1">
-        <v>-198.310000</v>
+        <v>-198.31</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>53298.991818</v>
+        <v>53298.991818000002</v>
       </c>
       <c r="G3" s="1">
-        <v>14.805276</v>
+        <v>14.805275999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.990000</v>
+        <v>915.99</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.075000</v>
+        <v>-168.07499999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>53309.437566</v>
+        <v>53309.437566000001</v>
       </c>
       <c r="L3" s="1">
-        <v>14.808177</v>
+        <v>14.808177000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>939.840000</v>
+        <v>939.84</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.915000</v>
+        <v>-119.91500000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>53319.944815</v>
+        <v>53319.944815000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>14.811096</v>
+        <v>14.811095999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>946.648000</v>
+        <v>946.64800000000002</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.871000</v>
+        <v>-103.871</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>53331.202512</v>
+        <v>53331.202512000003</v>
       </c>
       <c r="V3" s="1">
         <v>14.814223</v>
       </c>
       <c r="W3" s="1">
-        <v>953.543000</v>
+        <v>953.54300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.913900</v>
+        <v>-88.913899999999998</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>53341.674050</v>
+        <v>53341.674050000001</v>
       </c>
       <c r="AA3" s="1">
-        <v>14.817132</v>
+        <v>14.817132000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>960.780000</v>
+        <v>960.78</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.343700</v>
+        <v>-77.343699999999998</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>53352.211558</v>
+        <v>53352.211558000003</v>
       </c>
       <c r="AF3" s="1">
-        <v>14.820059</v>
+        <v>14.820059000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>965.450000</v>
+        <v>965.45</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.205100</v>
+        <v>-75.205100000000002</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>53362.631016</v>
+        <v>53362.631015999999</v>
       </c>
       <c r="AK3" s="1">
         <v>14.822953</v>
       </c>
       <c r="AL3" s="1">
-        <v>972.834000</v>
+        <v>972.83399999999995</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.967600</v>
+        <v>-79.967600000000004</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>53373.201753</v>
+        <v>53373.201753000001</v>
       </c>
       <c r="AP3" s="1">
         <v>14.825889</v>
       </c>
       <c r="AQ3" s="1">
-        <v>981.022000</v>
+        <v>981.02200000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.594500</v>
+        <v>-91.594499999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>53384.938617</v>
       </c>
       <c r="AU3" s="1">
-        <v>14.829150</v>
+        <v>14.82915</v>
       </c>
       <c r="AV3" s="1">
-        <v>990.978000</v>
+        <v>990.97799999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.357000</v>
+        <v>-109.357</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>53396.070336</v>
+        <v>53396.070335999997</v>
       </c>
       <c r="AZ3" s="1">
-        <v>14.832242</v>
+        <v>14.832242000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>999.361000</v>
+        <v>999.36099999999999</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.083000</v>
+        <v>-125.083</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>53407.155885</v>
@@ -903,120 +1319,120 @@
         <v>14.835321</v>
       </c>
       <c r="BF3" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG3" s="1">
-        <v>-196.968000</v>
+        <v>-196.96799999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>53417.927007</v>
+        <v>53417.927006999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>14.838313</v>
+        <v>14.838312999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1105.790000</v>
+        <v>1105.79</v>
       </c>
       <c r="BL3" s="1">
-        <v>-313.050000</v>
+        <v>-313.05</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>53429.124228</v>
+        <v>53429.124228000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>14.841423</v>
+        <v>14.841423000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-495.686000</v>
+        <v>-495.68599999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>53439.889857</v>
+        <v>53439.889857000002</v>
       </c>
       <c r="BT3" s="1">
         <v>14.844414</v>
       </c>
       <c r="BU3" s="1">
-        <v>1336.490000</v>
+        <v>1336.49</v>
       </c>
       <c r="BV3" s="1">
-        <v>-695.667000</v>
+        <v>-695.66700000000003</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>53450.611910</v>
+        <v>53450.61191</v>
       </c>
       <c r="BY3" s="1">
-        <v>14.847392</v>
+        <v>14.847391999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1472.330000</v>
+        <v>1472.33</v>
       </c>
       <c r="CA3" s="1">
-        <v>-908.826000</v>
+        <v>-908.82600000000002</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>53461.681093</v>
+        <v>53461.681092999999</v>
       </c>
       <c r="CD3" s="1">
         <v>14.850467</v>
       </c>
       <c r="CE3" s="1">
-        <v>1828.560000</v>
+        <v>1828.56</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1412.740000</v>
+        <v>-1412.74</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>53288.977131</v>
       </c>
       <c r="B4" s="1">
-        <v>14.802494</v>
+        <v>14.802493999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>898.992000</v>
+        <v>898.99199999999996</v>
       </c>
       <c r="D4" s="1">
-        <v>-198.415000</v>
+        <v>-198.41499999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>53299.335052</v>
+        <v>53299.335052000002</v>
       </c>
       <c r="G4" s="1">
-        <v>14.805371</v>
+        <v>14.805370999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>916.218000</v>
+        <v>916.21799999999996</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.085000</v>
+        <v>-168.08500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>53309.789761</v>
@@ -1025,240 +1441,240 @@
         <v>14.808275</v>
       </c>
       <c r="M4" s="1">
-        <v>939.630000</v>
+        <v>939.63</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.937000</v>
+        <v>-119.937</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>53320.642686</v>
+        <v>53320.642685999999</v>
       </c>
       <c r="Q4" s="1">
-        <v>14.811290</v>
+        <v>14.81129</v>
       </c>
       <c r="R4" s="1">
-        <v>946.635000</v>
+        <v>946.63499999999999</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.884000</v>
+        <v>-103.884</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>53331.548752</v>
+        <v>53331.548752000002</v>
       </c>
       <c r="V4" s="1">
-        <v>14.814319</v>
+        <v>14.814318999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>953.442000</v>
+        <v>953.44200000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.929900</v>
+        <v>-88.929900000000004</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>53342.021779</v>
+        <v>53342.021779000002</v>
       </c>
       <c r="AA4" s="1">
         <v>14.817228</v>
       </c>
       <c r="AB4" s="1">
-        <v>960.749000</v>
+        <v>960.74900000000002</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.366700</v>
+        <v>-77.366699999999994</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>53352.554788</v>
+        <v>53352.554788000001</v>
       </c>
       <c r="AF4" s="1">
         <v>14.820154</v>
       </c>
       <c r="AG4" s="1">
-        <v>965.550000</v>
+        <v>965.55</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.140900</v>
+        <v>-75.140900000000002</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>53363.288741</v>
+        <v>53363.288740999997</v>
       </c>
       <c r="AK4" s="1">
         <v>14.823136</v>
       </c>
       <c r="AL4" s="1">
-        <v>972.836000</v>
+        <v>972.83600000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.947800</v>
+        <v>-79.947800000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>53373.866392</v>
+        <v>53373.866392000004</v>
       </c>
       <c r="AP4" s="1">
         <v>14.826074</v>
       </c>
       <c r="AQ4" s="1">
-        <v>981.029000</v>
+        <v>981.029</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.585800</v>
+        <v>-91.585800000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>53385.357714</v>
+        <v>53385.357713999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>14.829266</v>
+        <v>14.829266000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>990.983000</v>
+        <v>990.98299999999995</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.377000</v>
+        <v>-109.377</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>53396.554890</v>
+        <v>53396.554889999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>14.832376</v>
       </c>
       <c r="BA4" s="1">
-        <v>999.346000</v>
+        <v>999.346</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.034000</v>
+        <v>-125.03400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>53407.518459</v>
+        <v>53407.518458999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>14.835422</v>
+        <v>14.835421999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG4" s="1">
-        <v>-196.948000</v>
+        <v>-196.94800000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>53418.330286</v>
+        <v>53418.330285999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>14.838425</v>
+        <v>14.838425000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1105.770000</v>
+        <v>1105.77</v>
       </c>
       <c r="BL4" s="1">
-        <v>-313.094000</v>
+        <v>-313.09399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>53429.547285</v>
+        <v>53429.547285000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>14.841541</v>
+        <v>14.841540999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-495.670000</v>
+        <v>-495.67</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>53440.320421</v>
+        <v>53440.320420999997</v>
       </c>
       <c r="BT4" s="1">
         <v>14.844533</v>
       </c>
       <c r="BU4" s="1">
-        <v>1336.500000</v>
+        <v>1336.5</v>
       </c>
       <c r="BV4" s="1">
-        <v>-695.553000</v>
+        <v>-695.553</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>53451.042402</v>
+        <v>53451.042401999999</v>
       </c>
       <c r="BY4" s="1">
         <v>14.847512</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="CA4" s="1">
-        <v>-908.853000</v>
+        <v>-908.85299999999995</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>53462.222227</v>
+        <v>53462.222226999998</v>
       </c>
       <c r="CD4" s="1">
         <v>14.850617</v>
       </c>
       <c r="CE4" s="1">
-        <v>1827.850000</v>
+        <v>1827.85</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1414.360000</v>
+        <v>-1414.36</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>53289.320328</v>
+        <v>53289.320328000002</v>
       </c>
       <c r="B5" s="1">
-        <v>14.802589</v>
+        <v>14.802588999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>899.003000</v>
+        <v>899.00300000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-198.210000</v>
+        <v>-198.21</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>53300.022009</v>
@@ -1267,360 +1683,360 @@
         <v>14.805562</v>
       </c>
       <c r="H5" s="1">
-        <v>915.975000</v>
+        <v>915.97500000000002</v>
       </c>
       <c r="I5" s="1">
-        <v>-167.726000</v>
+        <v>-167.726</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>53310.481160</v>
+        <v>53310.481160000003</v>
       </c>
       <c r="L5" s="1">
         <v>14.808467</v>
       </c>
       <c r="M5" s="1">
-        <v>939.669000</v>
+        <v>939.66899999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.861000</v>
+        <v>-119.861</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>53320.987903</v>
+        <v>53320.987903000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>14.811386</v>
+        <v>14.811386000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>946.612000</v>
+        <v>946.61199999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.843000</v>
+        <v>-103.843</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>53331.889007</v>
+        <v>53331.889006999998</v>
       </c>
       <c r="V5" s="1">
-        <v>14.814414</v>
+        <v>14.814413999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>953.380000</v>
+        <v>953.38</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.946600</v>
+        <v>-88.946600000000004</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>53342.371957</v>
+        <v>53342.371957000003</v>
       </c>
       <c r="AA5" s="1">
         <v>14.817326</v>
       </c>
       <c r="AB5" s="1">
-        <v>960.865000</v>
+        <v>960.86500000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.341900</v>
+        <v>-77.341899999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>53353.207523</v>
+        <v>53353.207522999997</v>
       </c>
       <c r="AF5" s="1">
         <v>14.820335</v>
       </c>
       <c r="AG5" s="1">
-        <v>965.398000</v>
+        <v>965.39800000000002</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.018400</v>
+        <v>-75.0184</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>53363.677078</v>
+        <v>53363.677078000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>14.823244</v>
+        <v>14.823244000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>972.837000</v>
+        <v>972.83699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.969700</v>
+        <v>-79.969700000000003</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>53374.311303</v>
+        <v>53374.311303000002</v>
       </c>
       <c r="AP5" s="1">
         <v>14.826198</v>
       </c>
       <c r="AQ5" s="1">
-        <v>981.016000</v>
+        <v>981.01599999999996</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.595600</v>
+        <v>-91.595600000000005</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>53385.723753</v>
+        <v>53385.723752999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>14.829368</v>
+        <v>14.829368000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>991.015000</v>
+        <v>991.01499999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.349000</v>
+        <v>-109.349</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>53396.896633</v>
+        <v>53396.896632999997</v>
       </c>
       <c r="AZ5" s="1">
         <v>14.832471</v>
       </c>
       <c r="BA5" s="1">
-        <v>999.335000</v>
+        <v>999.33500000000004</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.063000</v>
+        <v>-125.063</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>53407.879083</v>
       </c>
       <c r="BE5" s="1">
-        <v>14.835522</v>
+        <v>14.835521999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG5" s="1">
-        <v>-196.980000</v>
+        <v>-196.98</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>53418.766770</v>
+        <v>53418.766770000002</v>
       </c>
       <c r="BJ5" s="1">
-        <v>14.838546</v>
+        <v>14.838545999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1105.730000</v>
+        <v>1105.73</v>
       </c>
       <c r="BL5" s="1">
-        <v>-313.053000</v>
+        <v>-313.053</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>53429.977346</v>
       </c>
       <c r="BO5" s="1">
-        <v>14.841660</v>
+        <v>14.841659999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-495.686000</v>
+        <v>-495.68599999999998</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>53440.735072</v>
+        <v>53440.735072000003</v>
       </c>
       <c r="BT5" s="1">
         <v>14.844649</v>
       </c>
       <c r="BU5" s="1">
-        <v>1336.460000</v>
+        <v>1336.46</v>
       </c>
       <c r="BV5" s="1">
-        <v>-695.532000</v>
+        <v>-695.53200000000004</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>53451.462017</v>
+        <v>53451.462016999998</v>
       </c>
       <c r="BY5" s="1">
         <v>14.847628</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1472.340000</v>
+        <v>1472.34</v>
       </c>
       <c r="CA5" s="1">
-        <v>-908.760000</v>
+        <v>-908.76</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>53462.759425</v>
+        <v>53462.759424999997</v>
       </c>
       <c r="CD5" s="1">
-        <v>14.850767</v>
+        <v>14.850766999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1829.160000</v>
+        <v>1829.16</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1414.150000</v>
+        <v>-1414.15</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>53290.003360</v>
+        <v>53290.003360000002</v>
       </c>
       <c r="B6" s="1">
-        <v>14.802779</v>
+        <v>14.802778999999999</v>
       </c>
       <c r="C6" s="1">
-        <v>898.927000</v>
+        <v>898.92700000000002</v>
       </c>
       <c r="D6" s="1">
-        <v>-198.106000</v>
+        <v>-198.10599999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>53300.367257</v>
+        <v>53300.367256999998</v>
       </c>
       <c r="G6" s="1">
-        <v>14.805658</v>
+        <v>14.805657999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>916.552000</v>
+        <v>916.55200000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-167.952000</v>
+        <v>-167.952</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>53310.818956</v>
+        <v>53310.818956000003</v>
       </c>
       <c r="L6" s="1">
-        <v>14.808561</v>
+        <v>14.808560999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>939.631000</v>
+        <v>939.63099999999997</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.888000</v>
+        <v>-119.88800000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>53321.336123</v>
+        <v>53321.336123000001</v>
       </c>
       <c r="Q6" s="1">
         <v>14.811482</v>
       </c>
       <c r="R6" s="1">
-        <v>946.615000</v>
+        <v>946.61500000000001</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.857000</v>
+        <v>-103.857</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>53332.539726</v>
+        <v>53332.539726000003</v>
       </c>
       <c r="V6" s="1">
         <v>14.814594</v>
       </c>
       <c r="W6" s="1">
-        <v>953.456000</v>
+        <v>953.45600000000002</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.732400</v>
+        <v>-88.732399999999998</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>53343.021713</v>
+        <v>53343.021713000002</v>
       </c>
       <c r="AA6" s="1">
         <v>14.817506</v>
       </c>
       <c r="AB6" s="1">
-        <v>960.758000</v>
+        <v>960.75800000000004</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.397300</v>
+        <v>-77.397300000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>53353.584980</v>
+        <v>53353.58498</v>
       </c>
       <c r="AF6" s="1">
-        <v>14.820440</v>
+        <v>14.82044</v>
       </c>
       <c r="AG6" s="1">
-        <v>965.516000</v>
+        <v>965.51599999999996</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.125500</v>
+        <v>-75.125500000000002</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>53364.022825</v>
       </c>
       <c r="AK6" s="1">
-        <v>14.823340</v>
+        <v>14.82334</v>
       </c>
       <c r="AL6" s="1">
-        <v>972.873000</v>
+        <v>972.87300000000005</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.971800</v>
+        <v>-79.971800000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>53374.672392</v>
@@ -1629,28 +2045,28 @@
         <v>14.826298</v>
       </c>
       <c r="AQ6" s="1">
-        <v>981.012000</v>
+        <v>981.01199999999994</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.593900</v>
+        <v>-91.593900000000005</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>53386.090296</v>
+        <v>53386.090296000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>14.829470</v>
+        <v>14.829470000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>990.988000</v>
+        <v>990.98800000000006</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.362000</v>
+        <v>-109.36199999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>53397.321742</v>
@@ -1659,270 +2075,270 @@
         <v>14.832589</v>
       </c>
       <c r="BA6" s="1">
-        <v>999.368000</v>
+        <v>999.36800000000005</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.038000</v>
+        <v>-125.038</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>53408.309083</v>
       </c>
       <c r="BE6" s="1">
-        <v>14.835641</v>
+        <v>14.835641000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1038.530000</v>
+        <v>1038.53</v>
       </c>
       <c r="BG6" s="1">
-        <v>-196.944000</v>
+        <v>-196.94399999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>53419.080205</v>
+        <v>53419.080204999998</v>
       </c>
       <c r="BJ6" s="1">
         <v>14.838633</v>
       </c>
       <c r="BK6" s="1">
-        <v>1105.800000</v>
+        <v>1105.8</v>
       </c>
       <c r="BL6" s="1">
-        <v>-313.095000</v>
+        <v>-313.09500000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>53430.367662</v>
+        <v>53430.367661999997</v>
       </c>
       <c r="BO6" s="1">
-        <v>14.841769</v>
+        <v>14.841768999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1214.420000</v>
+        <v>1214.42</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-495.696000</v>
+        <v>-495.69600000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>53441.163584</v>
+        <v>53441.163584000002</v>
       </c>
       <c r="BT6" s="1">
         <v>14.844768</v>
       </c>
       <c r="BU6" s="1">
-        <v>1336.430000</v>
+        <v>1336.43</v>
       </c>
       <c r="BV6" s="1">
-        <v>-695.560000</v>
+        <v>-695.56</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>53451.884147</v>
+        <v>53451.884146999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>14.847746</v>
+        <v>14.847746000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA6" s="1">
-        <v>-908.901000</v>
+        <v>-908.90099999999995</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>53463.300035</v>
       </c>
       <c r="CD6" s="1">
-        <v>14.850917</v>
+        <v>14.850917000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1827.530000</v>
+        <v>1827.53</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1413.470000</v>
+        <v>-1413.47</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>53290.345560</v>
+        <v>53290.345560000002</v>
       </c>
       <c r="B7" s="1">
-        <v>14.802874</v>
+        <v>14.802873999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>898.909000</v>
+        <v>898.90899999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-198.223000</v>
+        <v>-198.22300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>53300.711979</v>
       </c>
       <c r="G7" s="1">
-        <v>14.805753</v>
+        <v>14.805752999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>916.174000</v>
+        <v>916.17399999999998</v>
       </c>
       <c r="I7" s="1">
-        <v>-167.902000</v>
+        <v>-167.90199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>53311.484554</v>
+        <v>53311.484554000002</v>
       </c>
       <c r="L7" s="1">
-        <v>14.808746</v>
+        <v>14.808745999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>939.732000</v>
+        <v>939.73199999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.961000</v>
+        <v>-119.961</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>53321.997261</v>
+        <v>53321.997260999997</v>
       </c>
       <c r="Q7" s="1">
-        <v>14.811666</v>
+        <v>14.811666000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>946.676000</v>
+        <v>946.67600000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.821000</v>
+        <v>-103.821</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>53332.921150</v>
+        <v>53332.921150000002</v>
       </c>
       <c r="V7" s="1">
-        <v>14.814700</v>
+        <v>14.8147</v>
       </c>
       <c r="W7" s="1">
-        <v>953.464000</v>
+        <v>953.46400000000006</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.941700</v>
+        <v>-88.941699999999997</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>53343.414016</v>
+        <v>53343.414016000002</v>
       </c>
       <c r="AA7" s="1">
         <v>14.817615</v>
       </c>
       <c r="AB7" s="1">
-        <v>960.770000</v>
+        <v>960.77</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.346100</v>
+        <v>-77.346100000000007</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>53353.927219</v>
+        <v>53353.927218999997</v>
       </c>
       <c r="AF7" s="1">
         <v>14.820535</v>
       </c>
       <c r="AG7" s="1">
-        <v>965.555000</v>
+        <v>965.55499999999995</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.070900</v>
+        <v>-75.070899999999995</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>53364.376161</v>
       </c>
       <c r="AK7" s="1">
-        <v>14.823438</v>
+        <v>14.823437999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>972.831000</v>
+        <v>972.83100000000002</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.952700</v>
+        <v>-79.952699999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>53375.030535</v>
+        <v>53375.030534999998</v>
       </c>
       <c r="AP7" s="1">
         <v>14.826397</v>
       </c>
       <c r="AQ7" s="1">
-        <v>981.020000</v>
+        <v>981.02</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.618400</v>
+        <v>-91.618399999999994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>53386.501511</v>
+        <v>53386.501511000002</v>
       </c>
       <c r="AU7" s="1">
-        <v>14.829584</v>
+        <v>14.829584000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>991.015000</v>
+        <v>991.01499999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.368000</v>
+        <v>-109.36799999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>53397.600004</v>
       </c>
       <c r="AZ7" s="1">
-        <v>14.832667</v>
+        <v>14.832667000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>999.353000</v>
+        <v>999.35299999999995</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>53408.602755</v>
@@ -1931,58 +2347,58 @@
         <v>14.835723</v>
       </c>
       <c r="BF7" s="1">
-        <v>1038.550000</v>
+        <v>1038.55</v>
       </c>
       <c r="BG7" s="1">
-        <v>-196.921000</v>
+        <v>-196.92099999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>53419.457163</v>
+        <v>53419.457162999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>14.838738</v>
+        <v>14.838737999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1105.730000</v>
+        <v>1105.73</v>
       </c>
       <c r="BL7" s="1">
-        <v>-313.093000</v>
+        <v>-313.09300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>53430.761486</v>
+        <v>53430.761486000003</v>
       </c>
       <c r="BO7" s="1">
-        <v>14.841878</v>
+        <v>14.841877999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-495.659000</v>
+        <v>-495.65899999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>53441.593616</v>
+        <v>53441.593615999998</v>
       </c>
       <c r="BT7" s="1">
         <v>14.844887</v>
       </c>
       <c r="BU7" s="1">
-        <v>1336.370000</v>
+        <v>1336.37</v>
       </c>
       <c r="BV7" s="1">
-        <v>-695.590000</v>
+        <v>-695.59</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>53452.311168</v>
@@ -1991,13 +2407,13 @@
         <v>14.847864</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1472.330000</v>
+        <v>1472.33</v>
       </c>
       <c r="CA7" s="1">
-        <v>-908.879000</v>
+        <v>-908.87900000000002</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>53463.841666</v>
@@ -2006,255 +2422,255 @@
         <v>14.851067</v>
       </c>
       <c r="CE7" s="1">
-        <v>1828.740000</v>
+        <v>1828.74</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1414.720000</v>
+        <v>-1414.72</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>53290.686310</v>
+        <v>53290.686309999997</v>
       </c>
       <c r="B8" s="1">
         <v>14.802968</v>
       </c>
       <c r="C8" s="1">
-        <v>899.069000</v>
+        <v>899.06899999999996</v>
       </c>
       <c r="D8" s="1">
-        <v>-198.187000</v>
+        <v>-198.18700000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>53301.363192</v>
+        <v>53301.363191999997</v>
       </c>
       <c r="G8" s="1">
-        <v>14.805934</v>
+        <v>14.805934000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>916.872000</v>
+        <v>916.87199999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-167.518000</v>
+        <v>-167.518</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>53311.853611</v>
+        <v>53311.853610999999</v>
       </c>
       <c r="L8" s="1">
-        <v>14.808848</v>
+        <v>14.808847999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>939.756000</v>
+        <v>939.75599999999997</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.820000</v>
+        <v>-119.82</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>53322.383186</v>
+        <v>53322.383185999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>14.811773</v>
+        <v>14.811773000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>946.680000</v>
+        <v>946.68</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.850000</v>
+        <v>-103.85</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>53333.264381</v>
+        <v>53333.264381000001</v>
       </c>
       <c r="V8" s="1">
-        <v>14.814796</v>
+        <v>14.814795999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>953.420000</v>
+        <v>953.42</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.831400</v>
+        <v>-88.831400000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>53343.767168</v>
+        <v>53343.767167999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>14.817713</v>
+        <v>14.817712999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>960.772000</v>
+        <v>960.77200000000005</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.339000</v>
+        <v>-77.338999999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>53354.271474</v>
+        <v>53354.271474000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>14.820631</v>
+        <v>14.820631000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>965.456000</v>
+        <v>965.45600000000002</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.141400</v>
+        <v>-75.141400000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>53364.798566</v>
+        <v>53364.798565999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>14.823555</v>
+        <v>14.823555000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>972.850000</v>
+        <v>972.85</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.964500</v>
+        <v>-79.964500000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>53375.455574</v>
       </c>
       <c r="AP8" s="1">
-        <v>14.826515</v>
+        <v>14.826515000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>981.019000</v>
+        <v>981.01900000000001</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.596200</v>
+        <v>-91.596199999999996</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>53386.817430</v>
+        <v>53386.817430000003</v>
       </c>
       <c r="AU8" s="1">
         <v>14.829672</v>
       </c>
       <c r="AV8" s="1">
-        <v>990.971000</v>
+        <v>990.971</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.364000</v>
+        <v>-109.364</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>53397.965544</v>
+        <v>53397.965543999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>14.832768</v>
       </c>
       <c r="BA8" s="1">
-        <v>999.352000</v>
+        <v>999.35199999999998</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.057000</v>
+        <v>-125.057</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>53408.962315</v>
+        <v>53408.962314999997</v>
       </c>
       <c r="BE8" s="1">
         <v>14.835823</v>
       </c>
       <c r="BF8" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG8" s="1">
-        <v>-196.946000</v>
+        <v>-196.946</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>53419.841099</v>
+        <v>53419.841098999997</v>
       </c>
       <c r="BJ8" s="1">
-        <v>14.838845</v>
+        <v>14.838844999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1105.750000</v>
+        <v>1105.75</v>
       </c>
       <c r="BL8" s="1">
-        <v>-313.107000</v>
+        <v>-313.10700000000003</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>53431.205934</v>
+        <v>53431.205933999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>14.842002</v>
+        <v>14.842002000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-495.716000</v>
+        <v>-495.71600000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>53442.006286</v>
+        <v>53442.006286000003</v>
       </c>
       <c r="BT8" s="1">
-        <v>14.845002</v>
+        <v>14.845001999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1336.280000</v>
+        <v>1336.28</v>
       </c>
       <c r="BV8" s="1">
-        <v>-695.482000</v>
+        <v>-695.48199999999997</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>53452.757569</v>
+        <v>53452.757569000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>14.847988</v>
+        <v>14.847988000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1472.360000</v>
+        <v>1472.36</v>
       </c>
       <c r="CA8" s="1">
-        <v>-908.854000</v>
+        <v>-908.85400000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
         <v>53464.380847</v>
@@ -2263,16 +2679,16 @@
         <v>14.851217</v>
       </c>
       <c r="CE8" s="1">
-        <v>1828.380000</v>
+        <v>1828.38</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1412.900000</v>
+        <v>-1412.9</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>53291.351445</v>
       </c>
@@ -2280,193 +2696,193 @@
         <v>14.803153</v>
       </c>
       <c r="C9" s="1">
-        <v>899.068000</v>
+        <v>899.06799999999998</v>
       </c>
       <c r="D9" s="1">
-        <v>-198.299000</v>
+        <v>-198.29900000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>53301.747095</v>
+        <v>53301.747094999999</v>
       </c>
       <c r="G9" s="1">
         <v>14.806041</v>
       </c>
       <c r="H9" s="1">
-        <v>916.727000</v>
+        <v>916.72699999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.137000</v>
+        <v>-168.137</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>53312.201310</v>
+        <v>53312.201309999997</v>
       </c>
       <c r="L9" s="1">
         <v>14.808945</v>
       </c>
       <c r="M9" s="1">
-        <v>939.560000</v>
+        <v>939.56</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.751000</v>
+        <v>-119.751</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>53322.732829</v>
       </c>
       <c r="Q9" s="1">
-        <v>14.811870</v>
+        <v>14.811870000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>946.654000</v>
+        <v>946.654</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.845000</v>
+        <v>-103.845</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>53333.609598</v>
+        <v>53333.609598000003</v>
       </c>
       <c r="V9" s="1">
         <v>14.814892</v>
       </c>
       <c r="W9" s="1">
-        <v>953.461000</v>
+        <v>953.46100000000001</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.946400</v>
+        <v>-88.946399999999997</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>53344.113408</v>
+        <v>53344.113407999997</v>
       </c>
       <c r="AA9" s="1">
         <v>14.817809</v>
       </c>
       <c r="AB9" s="1">
-        <v>960.736000</v>
+        <v>960.73599999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.317800</v>
+        <v>-77.317800000000005</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>53354.692585</v>
+        <v>53354.692584999997</v>
       </c>
       <c r="AF9" s="1">
         <v>14.820748</v>
       </c>
       <c r="AG9" s="1">
-        <v>965.518000</v>
+        <v>965.51800000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.184300</v>
+        <v>-75.184299999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>53365.076788</v>
+        <v>53365.076787999998</v>
       </c>
       <c r="AK9" s="1">
         <v>14.823632</v>
       </c>
       <c r="AL9" s="1">
-        <v>972.806000</v>
+        <v>972.80600000000004</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.943100</v>
+        <v>-79.943100000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>53375.749702</v>
+        <v>53375.749702000001</v>
       </c>
       <c r="AP9" s="1">
         <v>14.826597</v>
       </c>
       <c r="AQ9" s="1">
-        <v>981.016000</v>
+        <v>981.01599999999996</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.612500</v>
+        <v>-91.612499999999997</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>53387.179510</v>
+        <v>53387.179510000002</v>
       </c>
       <c r="AU9" s="1">
         <v>14.829772</v>
       </c>
       <c r="AV9" s="1">
-        <v>991.011000</v>
+        <v>991.01099999999997</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.352000</v>
+        <v>-109.352</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>53398.322163</v>
+        <v>53398.322162999997</v>
       </c>
       <c r="AZ9" s="1">
         <v>14.832867</v>
       </c>
       <c r="BA9" s="1">
-        <v>999.363000</v>
+        <v>999.36300000000006</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.064000</v>
+        <v>-125.06399999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>53409.324395</v>
+        <v>53409.324395000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>14.835923</v>
+        <v>14.835922999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG9" s="1">
-        <v>-196.952000</v>
+        <v>-196.952</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>53420.600442</v>
+        <v>53420.600442000003</v>
       </c>
       <c r="BJ9" s="1">
-        <v>14.839056</v>
+        <v>14.839055999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1105.790000</v>
+        <v>1105.79</v>
       </c>
       <c r="BL9" s="1">
-        <v>-313.084000</v>
+        <v>-313.084</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
         <v>53431.998538</v>
@@ -2475,300 +2891,300 @@
         <v>14.842222</v>
       </c>
       <c r="BP9" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-495.707000</v>
+        <v>-495.70699999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>53442.436815</v>
+        <v>53442.436815000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>14.845121</v>
+        <v>14.845121000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1336.220000</v>
+        <v>1336.22</v>
       </c>
       <c r="BV9" s="1">
-        <v>-695.557000</v>
+        <v>-695.55700000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>53453.193087</v>
       </c>
       <c r="BY9" s="1">
-        <v>14.848109</v>
+        <v>14.848108999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1472.320000</v>
+        <v>1472.32</v>
       </c>
       <c r="CA9" s="1">
-        <v>-908.947000</v>
+        <v>-908.947</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>53464.920464</v>
+        <v>53464.920464000003</v>
       </c>
       <c r="CD9" s="1">
         <v>14.851367</v>
       </c>
       <c r="CE9" s="1">
-        <v>1828.120000</v>
+        <v>1828.12</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1414.660000</v>
+        <v>-1414.66</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>53291.711044</v>
+        <v>53291.711044000003</v>
       </c>
       <c r="B10" s="1">
         <v>14.803253</v>
       </c>
       <c r="C10" s="1">
-        <v>898.892000</v>
+        <v>898.89200000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-198.318000</v>
+        <v>-198.31800000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>53302.091846</v>
+        <v>53302.091846000003</v>
       </c>
       <c r="G10" s="1">
         <v>14.806137</v>
       </c>
       <c r="H10" s="1">
-        <v>916.373000</v>
+        <v>916.37300000000005</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.231000</v>
+        <v>-168.23099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>53312.550458</v>
+        <v>53312.550457999998</v>
       </c>
       <c r="L10" s="1">
         <v>14.809042</v>
       </c>
       <c r="M10" s="1">
-        <v>939.751000</v>
+        <v>939.75099999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.882000</v>
+        <v>-119.88200000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>53323.081547</v>
+        <v>53323.081547000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>14.811967</v>
+        <v>14.811966999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>946.620000</v>
+        <v>946.62</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.825000</v>
+        <v>-103.825</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>53334.023261</v>
+        <v>53334.023261000002</v>
       </c>
       <c r="V10" s="1">
         <v>14.815006</v>
       </c>
       <c r="W10" s="1">
-        <v>953.459000</v>
+        <v>953.45899999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.934800</v>
+        <v>-88.934799999999996</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>53344.533026</v>
+        <v>53344.533025999997</v>
       </c>
       <c r="AA10" s="1">
         <v>14.817926</v>
       </c>
       <c r="AB10" s="1">
-        <v>960.766000</v>
+        <v>960.76599999999996</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.385200</v>
+        <v>-77.385199999999998</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>53354.964849</v>
+        <v>53354.964849000004</v>
       </c>
       <c r="AF10" s="1">
         <v>14.820824</v>
       </c>
       <c r="AG10" s="1">
-        <v>965.472000</v>
+        <v>965.47199999999998</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.072800</v>
+        <v>-75.072800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>53365.422003</v>
       </c>
       <c r="AK10" s="1">
-        <v>14.823728</v>
+        <v>14.823727999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>972.827000</v>
+        <v>972.827</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.933500</v>
+        <v>-79.933499999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>53376.110329</v>
+        <v>53376.110329000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>14.826697</v>
+        <v>14.826696999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>981.002000</v>
+        <v>981.00199999999995</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.623600</v>
+        <v>-91.623599999999996</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>53387.548038</v>
+        <v>53387.548038000001</v>
       </c>
       <c r="AU10" s="1">
         <v>14.829874</v>
       </c>
       <c r="AV10" s="1">
-        <v>990.988000</v>
+        <v>990.98800000000006</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.384000</v>
+        <v>-109.384</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>53399.041335</v>
+        <v>53399.041335000002</v>
       </c>
       <c r="AZ10" s="1">
         <v>14.833067</v>
       </c>
       <c r="BA10" s="1">
-        <v>999.359000</v>
+        <v>999.35900000000004</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>53410.055498</v>
+        <v>53410.055498000002</v>
       </c>
       <c r="BE10" s="1">
-        <v>14.836127</v>
+        <v>14.836126999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1038.540000</v>
+        <v>1038.54</v>
       </c>
       <c r="BG10" s="1">
-        <v>-196.960000</v>
+        <v>-196.96</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>53420.976906</v>
+        <v>53420.976906000004</v>
       </c>
       <c r="BJ10" s="1">
-        <v>14.839160</v>
+        <v>14.83916</v>
       </c>
       <c r="BK10" s="1">
-        <v>1105.730000</v>
+        <v>1105.73</v>
       </c>
       <c r="BL10" s="1">
-        <v>-313.088000</v>
+        <v>-313.08800000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>53432.403485</v>
+        <v>53432.403485000003</v>
       </c>
       <c r="BO10" s="1">
-        <v>14.842334</v>
+        <v>14.842333999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-495.688000</v>
+        <v>-495.68799999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>53442.863373</v>
       </c>
       <c r="BT10" s="1">
-        <v>14.845240</v>
+        <v>14.84524</v>
       </c>
       <c r="BU10" s="1">
-        <v>1336.180000</v>
+        <v>1336.18</v>
       </c>
       <c r="BV10" s="1">
-        <v>-695.501000</v>
+        <v>-695.50099999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>53453.924190</v>
+        <v>53453.924189999998</v>
       </c>
       <c r="BY10" s="1">
         <v>14.848312</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1472.340000</v>
+        <v>1472.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-908.937000</v>
+        <v>-908.93700000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>53465.762702</v>
@@ -2777,105 +3193,105 @@
         <v>14.851601</v>
       </c>
       <c r="CE10" s="1">
-        <v>1827.950000</v>
+        <v>1827.95</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1413.420000</v>
+        <v>-1413.42</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>53292.052801</v>
+        <v>53292.052800999998</v>
       </c>
       <c r="B11" s="1">
         <v>14.803348</v>
       </c>
       <c r="C11" s="1">
-        <v>898.827000</v>
+        <v>898.827</v>
       </c>
       <c r="D11" s="1">
-        <v>-198.203000</v>
+        <v>-198.203</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>53302.442025</v>
+        <v>53302.442024999997</v>
       </c>
       <c r="G11" s="1">
         <v>14.806234</v>
       </c>
       <c r="H11" s="1">
-        <v>916.406000</v>
+        <v>916.40599999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.294000</v>
+        <v>-168.29400000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>53312.964653</v>
+        <v>53312.964653000003</v>
       </c>
       <c r="L11" s="1">
-        <v>14.809157</v>
+        <v>14.809157000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>939.658000</v>
+        <v>939.65800000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.786000</v>
+        <v>-119.786</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>53323.504635</v>
+        <v>53323.504634999998</v>
       </c>
       <c r="Q11" s="1">
         <v>14.812085</v>
       </c>
       <c r="R11" s="1">
-        <v>946.610000</v>
+        <v>946.61</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.831000</v>
+        <v>-103.831</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>53334.319870</v>
+        <v>53334.319869999999</v>
       </c>
       <c r="V11" s="1">
         <v>14.815089</v>
       </c>
       <c r="W11" s="1">
-        <v>953.420000</v>
+        <v>953.42</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.084600</v>
+        <v>-89.084599999999995</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>53344.811246</v>
+        <v>53344.811245999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>14.818003</v>
+        <v>14.818002999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>960.719000</v>
+        <v>960.71900000000005</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.386700</v>
+        <v>-77.386700000000005</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>53355.308609</v>
@@ -2884,73 +3300,73 @@
         <v>14.820919</v>
       </c>
       <c r="AG11" s="1">
-        <v>965.521000</v>
+        <v>965.52099999999996</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.280300</v>
+        <v>-75.280299999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>53365.770195</v>
+        <v>53365.770194999997</v>
       </c>
       <c r="AK11" s="1">
-        <v>14.823825</v>
+        <v>14.823824999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>972.822000</v>
+        <v>972.822</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.948100</v>
+        <v>-79.948099999999997</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>53376.472373</v>
+        <v>53376.472372999997</v>
       </c>
       <c r="AP11" s="1">
         <v>14.826798</v>
       </c>
       <c r="AQ11" s="1">
-        <v>981.015000</v>
+        <v>981.01499999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.600800</v>
+        <v>-91.600800000000007</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>53388.276660</v>
+        <v>53388.276660000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>14.830077</v>
+        <v>14.830076999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>990.998000</v>
+        <v>990.99800000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.382000</v>
+        <v>-109.38200000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>53399.417334</v>
+        <v>53399.417333999998</v>
       </c>
       <c r="AZ11" s="1">
         <v>14.833171</v>
       </c>
       <c r="BA11" s="1">
-        <v>999.361000</v>
+        <v>999.36099999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>53410.430967</v>
@@ -2959,936 +3375,936 @@
         <v>14.836231</v>
       </c>
       <c r="BF11" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG11" s="1">
-        <v>-196.966000</v>
+        <v>-196.96600000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>53421.352906</v>
       </c>
       <c r="BJ11" s="1">
-        <v>14.839265</v>
+        <v>14.839264999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1105.810000</v>
+        <v>1105.81</v>
       </c>
       <c r="BL11" s="1">
-        <v>-313.098000</v>
+        <v>-313.09800000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>53433.120158</v>
+        <v>53433.120157999998</v>
       </c>
       <c r="BO11" s="1">
         <v>14.842533</v>
       </c>
       <c r="BP11" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-495.676000</v>
+        <v>-495.67599999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>53443.585053</v>
+        <v>53443.585053000003</v>
       </c>
       <c r="BT11" s="1">
-        <v>14.845440</v>
+        <v>14.84544</v>
       </c>
       <c r="BU11" s="1">
-        <v>1336.120000</v>
+        <v>1336.12</v>
       </c>
       <c r="BV11" s="1">
-        <v>-695.533000</v>
+        <v>-695.53300000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>53454.063566</v>
+        <v>53454.063565999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>14.848351</v>
+        <v>14.848350999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1472.310000</v>
+        <v>1472.31</v>
       </c>
       <c r="CA11" s="1">
-        <v>-908.906000</v>
+        <v>-908.90599999999995</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>53465.998271</v>
+        <v>53465.998270999997</v>
       </c>
       <c r="CD11" s="1">
         <v>14.851666</v>
       </c>
       <c r="CE11" s="1">
-        <v>1827.650000</v>
+        <v>1827.65</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1413.370000</v>
+        <v>-1413.37</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>53292.393044</v>
+        <v>53292.393043999997</v>
       </c>
       <c r="B12" s="1">
         <v>14.803443</v>
       </c>
       <c r="C12" s="1">
-        <v>898.880000</v>
+        <v>898.88</v>
       </c>
       <c r="D12" s="1">
-        <v>-198.301000</v>
+        <v>-198.30099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>53302.875990</v>
+        <v>53302.87599</v>
       </c>
       <c r="G12" s="1">
-        <v>14.806354</v>
+        <v>14.806354000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>916.341000</v>
+        <v>916.34100000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.156000</v>
+        <v>-168.15600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>53313.255272</v>
+        <v>53313.255272000002</v>
       </c>
       <c r="L12" s="1">
-        <v>14.809238</v>
+        <v>14.809238000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>939.729000</v>
+        <v>939.72900000000004</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.916000</v>
+        <v>-119.916</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>53323.786331</v>
+        <v>53323.786331000003</v>
       </c>
       <c r="Q12" s="1">
         <v>14.812163</v>
       </c>
       <c r="R12" s="1">
-        <v>946.629000</v>
+        <v>946.62900000000002</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.843000</v>
+        <v>-103.843</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>53334.663136</v>
+        <v>53334.663136000003</v>
       </c>
       <c r="V12" s="1">
         <v>14.815184</v>
       </c>
       <c r="W12" s="1">
-        <v>953.442000</v>
+        <v>953.44200000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.835700</v>
+        <v>-88.835700000000003</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>53345.203087</v>
+        <v>53345.203087000002</v>
       </c>
       <c r="AA12" s="1">
-        <v>14.818112</v>
+        <v>14.818111999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>960.792000</v>
+        <v>960.79200000000003</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.362400</v>
+        <v>-77.362399999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>53355.648833</v>
+        <v>53355.648832999999</v>
       </c>
       <c r="AF12" s="1">
         <v>14.821014</v>
       </c>
       <c r="AG12" s="1">
-        <v>965.657000</v>
+        <v>965.65700000000004</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.137400</v>
+        <v>-75.1374</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>53366.470049</v>
+        <v>53366.470049000003</v>
       </c>
       <c r="AK12" s="1">
         <v>14.824019</v>
       </c>
       <c r="AL12" s="1">
-        <v>972.850000</v>
+        <v>972.85</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.938700</v>
+        <v>-79.938699999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>53377.200039</v>
+        <v>53377.200039000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>14.827000</v>
+        <v>14.827</v>
       </c>
       <c r="AQ12" s="1">
-        <v>981.017000</v>
+        <v>981.01700000000005</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.617800</v>
+        <v>-91.617800000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>53388.639268</v>
+        <v>53388.639267999999</v>
       </c>
       <c r="AU12" s="1">
         <v>14.830178</v>
       </c>
       <c r="AV12" s="1">
-        <v>990.985000</v>
+        <v>990.98500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.359000</v>
+        <v>-109.35899999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>53399.795259</v>
+        <v>53399.795258999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>14.833276</v>
       </c>
       <c r="BA12" s="1">
-        <v>999.351000</v>
+        <v>999.351</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.054000</v>
+        <v>-125.054</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
         <v>53410.824793</v>
       </c>
       <c r="BE12" s="1">
-        <v>14.836340</v>
+        <v>14.83634</v>
       </c>
       <c r="BF12" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG12" s="1">
-        <v>-196.958000</v>
+        <v>-196.958</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>53422.069594</v>
+        <v>53422.069594000001</v>
       </c>
       <c r="BJ12" s="1">
         <v>14.839464</v>
       </c>
       <c r="BK12" s="1">
-        <v>1105.790000</v>
+        <v>1105.79</v>
       </c>
       <c r="BL12" s="1">
-        <v>-313.099000</v>
+        <v>-313.09899999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>53433.232058</v>
+        <v>53433.232058000001</v>
       </c>
       <c r="BO12" s="1">
-        <v>14.842564</v>
+        <v>14.842563999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-495.662000</v>
+        <v>-495.66199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>53443.708092</v>
+        <v>53443.708092000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>14.845474</v>
+        <v>14.845473999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1336.080000</v>
+        <v>1336.08</v>
       </c>
       <c r="BV12" s="1">
-        <v>-695.538000</v>
+        <v>-695.53800000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>53454.486622</v>
+        <v>53454.486621999997</v>
       </c>
       <c r="BY12" s="1">
         <v>14.848469</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1472.320000</v>
+        <v>1472.32</v>
       </c>
       <c r="CA12" s="1">
-        <v>-908.856000</v>
+        <v>-908.85599999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>53466.529981</v>
       </c>
       <c r="CD12" s="1">
-        <v>14.851814</v>
+        <v>14.851813999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>1828.090000</v>
+        <v>1828.09</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1414.840000</v>
+        <v>-1414.84</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>53292.884585</v>
       </c>
       <c r="B13" s="1">
-        <v>14.803579</v>
+        <v>14.803578999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>898.780000</v>
+        <v>898.78</v>
       </c>
       <c r="D13" s="1">
-        <v>-198.348000</v>
+        <v>-198.34800000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>53303.146311</v>
+        <v>53303.146310999997</v>
       </c>
       <c r="G13" s="1">
-        <v>14.806430</v>
+        <v>14.806430000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.037000</v>
+        <v>916.03700000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.026000</v>
+        <v>-168.02600000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>53313.600984</v>
+        <v>53313.600983999997</v>
       </c>
       <c r="L13" s="1">
         <v>14.809334</v>
       </c>
       <c r="M13" s="1">
-        <v>939.797000</v>
+        <v>939.79700000000003</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.895000</v>
+        <v>-119.895</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>53324.133563</v>
+        <v>53324.133563000003</v>
       </c>
       <c r="Q13" s="1">
-        <v>14.812259</v>
+        <v>14.812258999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>946.644000</v>
+        <v>946.64400000000001</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.824000</v>
+        <v>-103.824</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>53335.008315</v>
+        <v>53335.008314999999</v>
       </c>
       <c r="V13" s="1">
-        <v>14.815280</v>
+        <v>14.81528</v>
       </c>
       <c r="W13" s="1">
-        <v>953.479000</v>
+        <v>953.47900000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.849800</v>
+        <v>-88.849800000000002</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>53345.884125</v>
+        <v>53345.884124999997</v>
       </c>
       <c r="AA13" s="1">
         <v>14.818301</v>
       </c>
       <c r="AB13" s="1">
-        <v>960.773000</v>
+        <v>960.77300000000002</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.358000</v>
+        <v>-77.358000000000004</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>53356.336784</v>
+        <v>53356.336783999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>14.821205</v>
+        <v>14.821205000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>965.556000</v>
+        <v>965.55600000000004</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.214800</v>
+        <v>-75.214799999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>53366.815793</v>
+        <v>53366.815793000002</v>
       </c>
       <c r="AK13" s="1">
-        <v>14.824115</v>
+        <v>14.824115000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>972.829000</v>
+        <v>972.82899999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.956900</v>
+        <v>-79.956900000000005</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>53377.579940</v>
+        <v>53377.579940000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>14.827106</v>
+        <v>14.827106000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>981.002000</v>
+        <v>981.00199999999995</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.607000</v>
+        <v>-91.606999999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>53389.006310</v>
+        <v>53389.006309999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>14.830280</v>
+        <v>14.83028</v>
       </c>
       <c r="AV13" s="1">
-        <v>990.975000</v>
+        <v>990.97500000000002</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.363000</v>
+        <v>-109.363</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>53400.461914</v>
       </c>
       <c r="AZ13" s="1">
-        <v>14.833462</v>
+        <v>14.833462000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>999.347000</v>
+        <v>999.34699999999998</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>53411.503356</v>
+        <v>53411.503356000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>14.836529</v>
+        <v>14.836529000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG13" s="1">
-        <v>-196.958000</v>
+        <v>-196.958</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>53422.508090</v>
+        <v>53422.508090000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>14.839586</v>
+        <v>14.839586000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1105.750000</v>
+        <v>1105.75</v>
       </c>
       <c r="BL13" s="1">
-        <v>-313.072000</v>
+        <v>-313.072</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>53433.628859</v>
+        <v>53433.628858999997</v>
       </c>
       <c r="BO13" s="1">
         <v>14.842675</v>
       </c>
       <c r="BP13" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-495.674000</v>
+        <v>-495.67399999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>53444.146523</v>
+        <v>53444.146523000003</v>
       </c>
       <c r="BT13" s="1">
         <v>14.845596</v>
       </c>
       <c r="BU13" s="1">
-        <v>1335.970000</v>
+        <v>1335.97</v>
       </c>
       <c r="BV13" s="1">
-        <v>-695.585000</v>
+        <v>-695.58500000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>53454.935501</v>
       </c>
       <c r="BY13" s="1">
-        <v>14.848593</v>
+        <v>14.848592999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1472.350000</v>
+        <v>1472.35</v>
       </c>
       <c r="CA13" s="1">
-        <v>-908.988000</v>
+        <v>-908.98800000000006</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>53467.133128</v>
+        <v>53467.133128000001</v>
       </c>
       <c r="CD13" s="1">
         <v>14.851981</v>
       </c>
       <c r="CE13" s="1">
-        <v>1829.250000</v>
+        <v>1829.25</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1413.920000</v>
+        <v>-1413.92</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>53293.078530</v>
+        <v>53293.078529999999</v>
       </c>
       <c r="B14" s="1">
         <v>14.803633</v>
       </c>
       <c r="C14" s="1">
-        <v>898.902000</v>
+        <v>898.90200000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-198.312000</v>
+        <v>-198.31200000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>53303.486603</v>
+        <v>53303.486602999998</v>
       </c>
       <c r="G14" s="1">
         <v>14.806524</v>
       </c>
       <c r="H14" s="1">
-        <v>916.392000</v>
+        <v>916.39200000000005</v>
       </c>
       <c r="I14" s="1">
-        <v>-168.387000</v>
+        <v>-168.387</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>53313.946199</v>
+        <v>53313.946198999998</v>
       </c>
       <c r="L14" s="1">
         <v>14.809429</v>
       </c>
       <c r="M14" s="1">
-        <v>939.655000</v>
+        <v>939.65499999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.915000</v>
+        <v>-119.91500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>53324.483706</v>
+        <v>53324.483705999999</v>
       </c>
       <c r="Q14" s="1">
         <v>14.812357</v>
       </c>
       <c r="R14" s="1">
-        <v>946.636000</v>
+        <v>946.63599999999997</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.852000</v>
+        <v>-103.852</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>53335.694778</v>
+        <v>53335.694777999997</v>
       </c>
       <c r="V14" s="1">
-        <v>14.815471</v>
+        <v>14.815471000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>953.371000</v>
+        <v>953.37099999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.006500</v>
+        <v>-89.006500000000003</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>53346.236284</v>
+        <v>53346.236283999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>14.818399</v>
+        <v>14.818398999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>960.776000</v>
+        <v>960.77599999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.370500</v>
+        <v>-77.370500000000007</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>53356.680015</v>
+        <v>53356.680014999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>14.821300</v>
+        <v>14.821300000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>965.581000</v>
+        <v>965.58100000000002</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.160900</v>
+        <v>-75.160899999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>53367.163953</v>
+        <v>53367.163953000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>14.824212</v>
+        <v>14.824211999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>972.811000</v>
+        <v>972.81100000000004</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.924300</v>
+        <v>-79.924300000000002</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>53377.936564</v>
+        <v>53377.936564000003</v>
       </c>
       <c r="AP14" s="1">
-        <v>14.827205</v>
+        <v>14.827204999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>981.015000</v>
+        <v>981.01499999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.617100</v>
+        <v>-91.617099999999994</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>53389.672403</v>
+        <v>53389.672402999997</v>
       </c>
       <c r="AU14" s="1">
         <v>14.830465</v>
       </c>
       <c r="AV14" s="1">
-        <v>990.990000</v>
+        <v>990.99</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.387000</v>
+        <v>-109.387</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>53400.880015</v>
+        <v>53400.880015000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>14.833578</v>
+        <v>14.833577999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>999.350000</v>
+        <v>999.35</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.061000</v>
+        <v>-125.06100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>53411.941320</v>
+        <v>53411.941319999998</v>
       </c>
       <c r="BE14" s="1">
-        <v>14.836650</v>
+        <v>14.836650000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG14" s="1">
-        <v>-196.956000</v>
+        <v>-196.95599999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>53422.910840</v>
+        <v>53422.910839999997</v>
       </c>
       <c r="BJ14" s="1">
-        <v>14.839697</v>
+        <v>14.839696999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1105.770000</v>
+        <v>1105.77</v>
       </c>
       <c r="BL14" s="1">
-        <v>-313.126000</v>
+        <v>-313.12599999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>53434.022680</v>
+        <v>53434.022680000002</v>
       </c>
       <c r="BO14" s="1">
         <v>14.842784</v>
       </c>
       <c r="BP14" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-495.688000</v>
+        <v>-495.68799999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>53444.576570</v>
+        <v>53444.576569999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>14.845716</v>
+        <v>14.845715999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1335.990000</v>
+        <v>1335.99</v>
       </c>
       <c r="BV14" s="1">
-        <v>-695.703000</v>
+        <v>-695.70299999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>53455.365532</v>
+        <v>53455.365532000003</v>
       </c>
       <c r="BY14" s="1">
         <v>14.848713</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1472.410000</v>
+        <v>1472.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-908.885000</v>
+        <v>-908.88499999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>53467.555708</v>
       </c>
       <c r="CD14" s="1">
-        <v>14.852099</v>
+        <v>14.852099000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1828.240000</v>
+        <v>1828.24</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1413.140000</v>
+        <v>-1413.14</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>53293.418771</v>
+        <v>53293.418770999997</v>
       </c>
       <c r="B15" s="1">
         <v>14.803727</v>
       </c>
       <c r="C15" s="1">
-        <v>898.893000</v>
+        <v>898.89300000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-198.189000</v>
+        <v>-198.18899999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>53303.835284</v>
+        <v>53303.835284000001</v>
       </c>
       <c r="G15" s="1">
         <v>14.806621</v>
       </c>
       <c r="H15" s="1">
-        <v>916.400000</v>
+        <v>916.4</v>
       </c>
       <c r="I15" s="1">
-        <v>-168.292000</v>
+        <v>-168.292</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>53314.640634</v>
+        <v>53314.640634000003</v>
       </c>
       <c r="L15" s="1">
-        <v>14.809622</v>
+        <v>14.809621999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>939.613000</v>
+        <v>939.61300000000006</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.948000</v>
+        <v>-119.94799999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>53325.179640</v>
+        <v>53325.179640000002</v>
       </c>
       <c r="Q15" s="1">
-        <v>14.812550</v>
+        <v>14.81255</v>
       </c>
       <c r="R15" s="1">
-        <v>946.657000</v>
+        <v>946.65700000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.881000</v>
+        <v>-103.881</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>53336.038507</v>
+        <v>53336.038506999997</v>
       </c>
       <c r="V15" s="1">
         <v>14.815566</v>
       </c>
       <c r="W15" s="1">
-        <v>953.442000</v>
+        <v>953.44200000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.926200</v>
+        <v>-88.926199999999994</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>53346.583948</v>
@@ -3897,662 +4313,662 @@
         <v>14.818496</v>
       </c>
       <c r="AB15" s="1">
-        <v>960.725000</v>
+        <v>960.72500000000002</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.386400</v>
+        <v>-77.386399999999995</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>53357.022751</v>
+        <v>53357.022750999997</v>
       </c>
       <c r="AF15" s="1">
-        <v>14.821395</v>
+        <v>14.821395000000001</v>
       </c>
       <c r="AG15" s="1">
-        <v>965.527000</v>
+        <v>965.52700000000004</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.196700</v>
+        <v>-75.196700000000007</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>53367.829585</v>
+        <v>53367.829584999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>14.824397</v>
+        <v>14.824396999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>972.826000</v>
+        <v>972.82600000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.954200</v>
+        <v>-79.9542</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>53378.602193</v>
+        <v>53378.602192999999</v>
       </c>
       <c r="AP15" s="1">
         <v>14.827389</v>
       </c>
       <c r="AQ15" s="1">
-        <v>981.004000</v>
+        <v>981.00400000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.611000</v>
+        <v>-91.611000000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>53390.132722</v>
+        <v>53390.132722000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>14.830592</v>
+        <v>14.830591999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>990.979000</v>
+        <v>990.97900000000004</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.364000</v>
+        <v>-109.364</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>53401.255014</v>
+        <v>53401.255014000002</v>
       </c>
       <c r="AZ15" s="1">
         <v>14.833682</v>
       </c>
       <c r="BA15" s="1">
-        <v>999.350000</v>
+        <v>999.35</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>53412.301383</v>
+        <v>53412.301382999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>14.836750</v>
+        <v>14.83675</v>
       </c>
       <c r="BF15" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG15" s="1">
-        <v>-196.957000</v>
+        <v>-196.95699999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>53423.287550</v>
+        <v>53423.287550000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>14.839802</v>
+        <v>14.839802000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1105.760000</v>
+        <v>1105.76</v>
       </c>
       <c r="BL15" s="1">
-        <v>-313.093000</v>
+        <v>-313.09300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>53434.444280</v>
+        <v>53434.444280000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>14.842901</v>
+        <v>14.842900999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-495.710000</v>
+        <v>-495.71</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>53444.998155</v>
+        <v>53444.998155000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>14.845833</v>
+        <v>14.845833000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1335.900000</v>
+        <v>1335.9</v>
       </c>
       <c r="BV15" s="1">
-        <v>-695.695000</v>
+        <v>-695.69500000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>53455.788124</v>
+        <v>53455.788123999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>14.848830</v>
+        <v>14.84883</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1472.300000</v>
+        <v>1472.3</v>
       </c>
       <c r="CA15" s="1">
-        <v>-908.877000</v>
+        <v>-908.87699999999995</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>53468.069563</v>
+        <v>53468.069562999997</v>
       </c>
       <c r="CD15" s="1">
         <v>14.852242</v>
       </c>
       <c r="CE15" s="1">
-        <v>1828.240000</v>
+        <v>1828.24</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1413.160000</v>
+        <v>-1413.16</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>53294.102753</v>
+        <v>53294.102752999999</v>
       </c>
       <c r="B16" s="1">
         <v>14.803917</v>
       </c>
       <c r="C16" s="1">
-        <v>898.884000</v>
+        <v>898.88400000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-198.175000</v>
+        <v>-198.17500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>53304.522213</v>
+        <v>53304.522212999997</v>
       </c>
       <c r="G16" s="1">
-        <v>14.806812</v>
+        <v>14.806812000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>916.511000</v>
+        <v>916.51099999999997</v>
       </c>
       <c r="I16" s="1">
-        <v>-167.794000</v>
+        <v>-167.79400000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>53314.987302</v>
+        <v>53314.987302000001</v>
       </c>
       <c r="L16" s="1">
-        <v>14.809719</v>
+        <v>14.809718999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>939.784000</v>
+        <v>939.78399999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.859000</v>
+        <v>-119.85899999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>53325.528280</v>
+        <v>53325.528279999999</v>
       </c>
       <c r="Q16" s="1">
         <v>14.812647</v>
       </c>
       <c r="R16" s="1">
-        <v>946.620000</v>
+        <v>946.62</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.851000</v>
+        <v>-103.851</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>53336.381774</v>
+        <v>53336.381774000001</v>
       </c>
       <c r="V16" s="1">
         <v>14.815662</v>
       </c>
       <c r="W16" s="1">
-        <v>953.515000</v>
+        <v>953.51499999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.946400</v>
+        <v>-88.946399999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>53347.242139</v>
+        <v>53347.242139000002</v>
       </c>
       <c r="AA16" s="1">
         <v>14.818678</v>
       </c>
       <c r="AB16" s="1">
-        <v>960.779000</v>
+        <v>960.779</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.341000</v>
+        <v>-77.340999999999994</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>53357.672509</v>
+        <v>53357.672509000004</v>
       </c>
       <c r="AF16" s="1">
         <v>14.821576</v>
       </c>
       <c r="AG16" s="1">
-        <v>965.517000</v>
+        <v>965.51700000000005</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.147400</v>
+        <v>-75.147400000000005</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>53368.211040</v>
+        <v>53368.211040000002</v>
       </c>
       <c r="AK16" s="1">
         <v>14.824503</v>
       </c>
       <c r="AL16" s="1">
-        <v>972.845000</v>
+        <v>972.84500000000003</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.953100</v>
+        <v>-79.953100000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>53379.016886</v>
+        <v>53379.016885999998</v>
       </c>
       <c r="AP16" s="1">
         <v>14.827505</v>
       </c>
       <c r="AQ16" s="1">
-        <v>980.994000</v>
+        <v>980.99400000000003</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.595400</v>
+        <v>-91.595399999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>53390.498242</v>
+        <v>53390.498242000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>14.830694</v>
+        <v>14.830693999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>990.987000</v>
+        <v>990.98699999999997</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.362000</v>
+        <v>-109.36199999999999</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>53401.632931</v>
       </c>
       <c r="AZ16" s="1">
-        <v>14.833787</v>
+        <v>14.833786999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>999.356000</v>
+        <v>999.35599999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.018000</v>
+        <v>-125.018</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>53412.663462</v>
+        <v>53412.663461999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>14.836851</v>
+        <v>14.836850999999999</v>
       </c>
       <c r="BF16" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG16" s="1">
-        <v>-196.968000</v>
+        <v>-196.96799999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>53423.720290</v>
+        <v>53423.720289999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>14.839922</v>
       </c>
       <c r="BK16" s="1">
-        <v>1105.730000</v>
+        <v>1105.73</v>
       </c>
       <c r="BL16" s="1">
-        <v>-313.078000</v>
+        <v>-313.07799999999997</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>53434.844585</v>
+        <v>53434.844584999999</v>
       </c>
       <c r="BO16" s="1">
         <v>14.843012</v>
       </c>
       <c r="BP16" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-495.716000</v>
+        <v>-495.71600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>53445.414793</v>
+        <v>53445.414793000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>14.845949</v>
+        <v>14.845948999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1335.900000</v>
+        <v>1335.9</v>
       </c>
       <c r="BV16" s="1">
-        <v>-695.735000</v>
+        <v>-695.73500000000001</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>53456.209227</v>
+        <v>53456.209226999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>14.848947</v>
+        <v>14.848947000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1472.200000</v>
+        <v>1472.2</v>
       </c>
       <c r="CA16" s="1">
-        <v>-908.884000</v>
+        <v>-908.88400000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>53468.618635</v>
+        <v>53468.618634999999</v>
       </c>
       <c r="CD16" s="1">
         <v>14.852394</v>
       </c>
       <c r="CE16" s="1">
-        <v>1829.080000</v>
+        <v>1829.08</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1413.240000</v>
+        <v>-1413.24</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>53294.442513</v>
+        <v>53294.442513000002</v>
       </c>
       <c r="B17" s="1">
         <v>14.804012</v>
       </c>
       <c r="C17" s="1">
-        <v>898.985000</v>
+        <v>898.98500000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-198.256000</v>
+        <v>-198.256</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>53304.865444</v>
+        <v>53304.865444000003</v>
       </c>
       <c r="G17" s="1">
-        <v>14.806907</v>
+        <v>14.806907000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>916.154000</v>
+        <v>916.154</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.437000</v>
+        <v>-168.43700000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>53315.331558</v>
+        <v>53315.331557999998</v>
       </c>
       <c r="L17" s="1">
-        <v>14.809814</v>
+        <v>14.809813999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>939.799000</v>
+        <v>939.79899999999998</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.947000</v>
+        <v>-119.947</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>53325.874983</v>
+        <v>53325.874983000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>14.812743</v>
+        <v>14.812742999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>946.615000</v>
+        <v>946.61500000000001</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.890000</v>
+        <v>-103.89</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>53337.032986</v>
+        <v>53337.032985999998</v>
       </c>
       <c r="V17" s="1">
         <v>14.815842</v>
       </c>
       <c r="W17" s="1">
-        <v>953.403000</v>
+        <v>953.40300000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.899100</v>
+        <v>-88.899100000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>53347.631003</v>
+        <v>53347.631003000002</v>
       </c>
       <c r="AA17" s="1">
-        <v>14.818786</v>
+        <v>14.818785999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>960.722000</v>
+        <v>960.72199999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.401700</v>
+        <v>-77.401700000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>53358.053934</v>
+        <v>53358.053934000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>14.821682</v>
+        <v>14.821681999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>965.404000</v>
+        <v>965.404</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.167500</v>
+        <v>-75.167500000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>53368.560191</v>
+        <v>53368.560190999997</v>
       </c>
       <c r="AK17" s="1">
-        <v>14.824600</v>
+        <v>14.8246</v>
       </c>
       <c r="AL17" s="1">
-        <v>972.839000</v>
+        <v>972.83900000000006</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.945500</v>
+        <v>-79.945499999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>53379.397778</v>
+        <v>53379.397777999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>14.827610</v>
+        <v>14.82761</v>
       </c>
       <c r="AQ17" s="1">
-        <v>980.995000</v>
+        <v>980.995</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.621600</v>
+        <v>-91.621600000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>53390.863795</v>
+        <v>53390.863794999997</v>
       </c>
       <c r="AU17" s="1">
         <v>14.830795</v>
       </c>
       <c r="AV17" s="1">
-        <v>990.990000</v>
+        <v>990.99</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.380000</v>
+        <v>-109.38</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>53402.068914</v>
+        <v>53402.068914000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>14.833908</v>
+        <v>14.833907999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>999.354000</v>
+        <v>999.35400000000004</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.054000</v>
+        <v>-125.054</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>53413.085098</v>
+        <v>53413.085098000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>14.836968</v>
+        <v>14.836968000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG17" s="1">
-        <v>-196.944000</v>
+        <v>-196.94399999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>53424.062519</v>
+        <v>53424.062518999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>14.840017</v>
       </c>
       <c r="BK17" s="1">
-        <v>1105.780000</v>
+        <v>1105.78</v>
       </c>
       <c r="BL17" s="1">
-        <v>-313.135000</v>
+        <v>-313.13499999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>53435.266678</v>
       </c>
       <c r="BO17" s="1">
-        <v>14.843130</v>
+        <v>14.84313</v>
       </c>
       <c r="BP17" s="1">
-        <v>1214.400000</v>
+        <v>1214.4000000000001</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-495.692000</v>
+        <v>-495.69200000000001</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>53445.845818</v>
+        <v>53445.845818000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>14.846068</v>
+        <v>14.846068000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1335.920000</v>
+        <v>1335.92</v>
       </c>
       <c r="BV17" s="1">
-        <v>-695.814000</v>
+        <v>-695.81399999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>53456.634586</v>
@@ -4561,60 +4977,60 @@
         <v>14.849065</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1472.400000</v>
+        <v>1472.4</v>
       </c>
       <c r="CA17" s="1">
-        <v>-908.949000</v>
+        <v>-908.94899999999996</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>53469.152827</v>
+        <v>53469.152826999998</v>
       </c>
       <c r="CD17" s="1">
         <v>14.852542</v>
       </c>
       <c r="CE17" s="1">
-        <v>1827.660000</v>
+        <v>1827.66</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1413.420000</v>
+        <v>-1413.42</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>53294.784257</v>
+        <v>53294.784256999999</v>
       </c>
       <c r="B18" s="1">
         <v>14.804107</v>
       </c>
       <c r="C18" s="1">
-        <v>898.973000</v>
+        <v>898.97299999999996</v>
       </c>
       <c r="D18" s="1">
-        <v>-198.193000</v>
+        <v>-198.19300000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>53305.211650</v>
+        <v>53305.211649999997</v>
       </c>
       <c r="G18" s="1">
         <v>14.807003</v>
       </c>
       <c r="H18" s="1">
-        <v>916.275000</v>
+        <v>916.27499999999998</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.439000</v>
+        <v>-168.43899999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>53315.992198</v>
@@ -4623,73 +5039,73 @@
         <v>14.809998</v>
       </c>
       <c r="M18" s="1">
-        <v>939.852000</v>
+        <v>939.85199999999998</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.918000</v>
+        <v>-119.91800000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>53326.539624</v>
+        <v>53326.539623999997</v>
       </c>
       <c r="Q18" s="1">
-        <v>14.812928</v>
+        <v>14.812927999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>946.685000</v>
+        <v>946.68499999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.844000</v>
+        <v>-103.84399999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>53337.413945</v>
       </c>
       <c r="V18" s="1">
-        <v>14.815948</v>
+        <v>14.815948000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>953.406000</v>
+        <v>953.40599999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.936700</v>
+        <v>-88.936700000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>53347.975754</v>
+        <v>53347.975753999999</v>
       </c>
       <c r="AA18" s="1">
         <v>14.818882</v>
       </c>
       <c r="AB18" s="1">
-        <v>960.753000</v>
+        <v>960.75300000000004</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.357500</v>
+        <v>-77.357500000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>53358.398158</v>
+        <v>53358.398158000004</v>
       </c>
       <c r="AF18" s="1">
-        <v>14.821777</v>
+        <v>14.821777000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>965.496000</v>
+        <v>965.49599999999998</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.189000</v>
+        <v>-75.188999999999993</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>53368.909065</v>
@@ -4698,542 +5114,542 @@
         <v>14.824697</v>
       </c>
       <c r="AL18" s="1">
-        <v>972.818000</v>
+        <v>972.81799999999998</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.939500</v>
+        <v>-79.939499999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>53380.052000</v>
+        <v>53380.052000000003</v>
       </c>
       <c r="AP18" s="1">
-        <v>14.827792</v>
+        <v>14.827792000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>981.007000</v>
+        <v>981.00699999999995</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.603700</v>
+        <v>-91.603700000000003</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>53391.287873</v>
+        <v>53391.287873000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>14.830913</v>
+        <v>14.830913000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>990.970000</v>
+        <v>990.97</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.381000</v>
+        <v>-109.381</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>53402.350147</v>
+        <v>53402.350146999997</v>
       </c>
       <c r="AZ18" s="1">
-        <v>14.833986</v>
+        <v>14.833985999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>999.334000</v>
+        <v>999.33399999999995</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.028000</v>
+        <v>-125.02800000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>53413.381209</v>
+        <v>53413.381208999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>14.837050</v>
+        <v>14.83705</v>
       </c>
       <c r="BF18" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG18" s="1">
-        <v>-196.966000</v>
+        <v>-196.96600000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>53424.436998</v>
+        <v>53424.436997999997</v>
       </c>
       <c r="BJ18" s="1">
         <v>14.840121</v>
       </c>
       <c r="BK18" s="1">
-        <v>1105.750000</v>
+        <v>1105.75</v>
       </c>
       <c r="BL18" s="1">
-        <v>-313.064000</v>
+        <v>-313.06400000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>53435.662454</v>
+        <v>53435.662453999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>14.843240</v>
+        <v>14.84324</v>
       </c>
       <c r="BP18" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-495.702000</v>
+        <v>-495.702</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>53446.257498</v>
+        <v>53446.257497999999</v>
       </c>
       <c r="BT18" s="1">
         <v>14.846183</v>
       </c>
       <c r="BU18" s="1">
-        <v>1335.920000</v>
+        <v>1335.92</v>
       </c>
       <c r="BV18" s="1">
-        <v>-695.941000</v>
+        <v>-695.94100000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>53457.058874</v>
+        <v>53457.058874000002</v>
       </c>
       <c r="BY18" s="1">
         <v>14.849183</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1472.260000</v>
+        <v>1472.26</v>
       </c>
       <c r="CA18" s="1">
-        <v>-908.912000</v>
+        <v>-908.91200000000003</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>53469.668665</v>
+        <v>53469.668664999997</v>
       </c>
       <c r="CD18" s="1">
         <v>14.852686</v>
       </c>
       <c r="CE18" s="1">
-        <v>1828.590000</v>
+        <v>1828.59</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1413.100000</v>
+        <v>-1413.1</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>53295.435999</v>
+        <v>53295.435999000001</v>
       </c>
       <c r="B19" s="1">
         <v>14.804288</v>
       </c>
       <c r="C19" s="1">
-        <v>898.938000</v>
+        <v>898.93799999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-198.212000</v>
+        <v>-198.21199999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>53305.865379</v>
+        <v>53305.865379000003</v>
       </c>
       <c r="G19" s="1">
         <v>14.807185</v>
       </c>
       <c r="H19" s="1">
-        <v>916.524000</v>
+        <v>916.524</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.296000</v>
+        <v>-168.29599999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>53316.367669</v>
+        <v>53316.367668999999</v>
       </c>
       <c r="L19" s="1">
-        <v>14.810102</v>
+        <v>14.810102000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>939.704000</v>
+        <v>939.70399999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.807000</v>
+        <v>-119.807</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>53326.923030</v>
+        <v>53326.923029999998</v>
       </c>
       <c r="Q19" s="1">
         <v>14.813034</v>
       </c>
       <c r="R19" s="1">
-        <v>946.656000</v>
+        <v>946.65599999999995</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.850000</v>
+        <v>-103.85</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>53337.755656</v>
+        <v>53337.755656000001</v>
       </c>
       <c r="V19" s="1">
-        <v>14.816043</v>
+        <v>14.816043000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>953.505000</v>
+        <v>953.505</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.931700</v>
+        <v>-88.931700000000006</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>53348.327695</v>
       </c>
       <c r="AA19" s="1">
-        <v>14.818980</v>
+        <v>14.81898</v>
       </c>
       <c r="AB19" s="1">
-        <v>960.770000</v>
+        <v>960.77</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.349400</v>
+        <v>-77.349400000000003</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>53358.747377</v>
       </c>
       <c r="AF19" s="1">
-        <v>14.821874</v>
+        <v>14.821873999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>965.544000</v>
+        <v>965.54399999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.207500</v>
+        <v>-75.207499999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>53369.340894</v>
+        <v>53369.340894000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>14.824817</v>
+        <v>14.824816999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>972.824000</v>
+        <v>972.82399999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.940500</v>
+        <v>-79.9405</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>53380.481072</v>
+        <v>53380.481072000002</v>
       </c>
       <c r="AP19" s="1">
         <v>14.827911</v>
       </c>
       <c r="AQ19" s="1">
-        <v>980.987000</v>
+        <v>980.98699999999997</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.610500</v>
+        <v>-91.610500000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>53391.593936</v>
+        <v>53391.593935999997</v>
       </c>
       <c r="AU19" s="1">
-        <v>14.830998</v>
+        <v>14.830997999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>990.963000</v>
+        <v>990.96299999999997</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.358000</v>
+        <v>-109.358</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>53402.711267</v>
+        <v>53402.711266999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>14.834086</v>
+        <v>14.834085999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>999.357000</v>
+        <v>999.35699999999997</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.057000</v>
+        <v>-125.057</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>53413.811699</v>
+        <v>53413.811698999998</v>
       </c>
       <c r="BE19" s="1">
-        <v>14.837170</v>
+        <v>14.83717</v>
       </c>
       <c r="BF19" s="1">
-        <v>1038.530000</v>
+        <v>1038.53</v>
       </c>
       <c r="BG19" s="1">
-        <v>-196.925000</v>
+        <v>-196.92500000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>53424.811991</v>
+        <v>53424.811991000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>14.840226</v>
+        <v>14.840225999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1105.720000</v>
+        <v>1105.72</v>
       </c>
       <c r="BL19" s="1">
-        <v>-313.101000</v>
+        <v>-313.101</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>53436.091029</v>
+        <v>53436.091029000003</v>
       </c>
       <c r="BO19" s="1">
         <v>14.843359</v>
       </c>
       <c r="BP19" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-495.666000</v>
+        <v>-495.666</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>53446.686040</v>
+        <v>53446.686040000001</v>
       </c>
       <c r="BT19" s="1">
         <v>14.846302</v>
       </c>
       <c r="BU19" s="1">
-        <v>1335.870000</v>
+        <v>1335.87</v>
       </c>
       <c r="BV19" s="1">
-        <v>-695.934000</v>
+        <v>-695.93399999999997</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>53457.498827</v>
+        <v>53457.498827000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>14.849305</v>
+        <v>14.849304999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1472.350000</v>
+        <v>1472.35</v>
       </c>
       <c r="CA19" s="1">
-        <v>-908.958000</v>
+        <v>-908.95799999999997</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>53470.222237</v>
+        <v>53470.222237000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>14.852840</v>
+        <v>14.85284</v>
       </c>
       <c r="CE19" s="1">
-        <v>1829.230000</v>
+        <v>1829.23</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1413.370000</v>
+        <v>-1413.37</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>53295.808532</v>
+        <v>53295.808532000003</v>
       </c>
       <c r="B20" s="1">
-        <v>14.804391</v>
+        <v>14.804391000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>898.881000</v>
+        <v>898.88099999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-198.219000</v>
+        <v>-198.21899999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>53306.247298</v>
+        <v>53306.247298000002</v>
       </c>
       <c r="G20" s="1">
-        <v>14.807291</v>
+        <v>14.807290999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>916.871000</v>
+        <v>916.87099999999998</v>
       </c>
       <c r="I20" s="1">
-        <v>-167.864000</v>
+        <v>-167.864</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>53316.716884</v>
+        <v>53316.716884000001</v>
       </c>
       <c r="L20" s="1">
-        <v>14.810199</v>
+        <v>14.810199000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>939.877000</v>
+        <v>939.87699999999995</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.902000</v>
+        <v>-119.902</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>53327.273702</v>
+        <v>53327.273701999999</v>
       </c>
       <c r="Q20" s="1">
         <v>14.813132</v>
       </c>
       <c r="R20" s="1">
-        <v>946.642000</v>
+        <v>946.64200000000005</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.885000</v>
+        <v>-103.88500000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>53338.105367</v>
+        <v>53338.105366999996</v>
       </c>
       <c r="V20" s="1">
-        <v>14.816140</v>
+        <v>14.816140000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>953.394000</v>
+        <v>953.39400000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.879600</v>
+        <v>-88.879599999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>53348.761916</v>
+        <v>53348.761916000003</v>
       </c>
       <c r="AA20" s="1">
         <v>14.819101</v>
       </c>
       <c r="AB20" s="1">
-        <v>960.790000</v>
+        <v>960.79</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.408200</v>
+        <v>-77.408199999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>53359.158060</v>
+        <v>53359.158060000002</v>
       </c>
       <c r="AF20" s="1">
-        <v>14.821988</v>
+        <v>14.821987999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>965.503000</v>
+        <v>965.50300000000004</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.109400</v>
+        <v>-75.109399999999994</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>53369.619181</v>
+        <v>53369.619181000002</v>
       </c>
       <c r="AK20" s="1">
         <v>14.824894</v>
       </c>
       <c r="AL20" s="1">
-        <v>972.838000</v>
+        <v>972.83799999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.933000</v>
+        <v>-79.933000000000007</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>53380.867450</v>
+        <v>53380.867449999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>14.828019</v>
+        <v>14.828018999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>980.993000</v>
+        <v>980.99300000000005</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.599200</v>
+        <v>-91.599199999999996</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
         <v>53391.957188</v>
@@ -5242,240 +5658,240 @@
         <v>14.831099</v>
       </c>
       <c r="AV20" s="1">
-        <v>990.969000</v>
+        <v>990.96900000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.337000</v>
+        <v>-109.337</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>53403.069843</v>
+        <v>53403.069842999997</v>
       </c>
       <c r="AZ20" s="1">
-        <v>14.834186</v>
+        <v>14.834186000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>999.344000</v>
+        <v>999.34400000000005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.052000</v>
+        <v>-125.05200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>53414.438643</v>
+        <v>53414.438643000001</v>
       </c>
       <c r="BE20" s="1">
         <v>14.837344</v>
       </c>
       <c r="BF20" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG20" s="1">
-        <v>-196.947000</v>
+        <v>-196.947</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>53425.560963</v>
+        <v>53425.560963000004</v>
       </c>
       <c r="BJ20" s="1">
         <v>14.840434</v>
       </c>
       <c r="BK20" s="1">
-        <v>1105.790000</v>
+        <v>1105.79</v>
       </c>
       <c r="BL20" s="1">
-        <v>-313.098000</v>
+        <v>-313.09800000000001</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>53436.476885</v>
+        <v>53436.476884999996</v>
       </c>
       <c r="BO20" s="1">
-        <v>14.843466</v>
+        <v>14.843465999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-495.689000</v>
+        <v>-495.68900000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>53447.113626</v>
+        <v>53447.113625999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>14.846420</v>
+        <v>14.84642</v>
       </c>
       <c r="BU20" s="1">
-        <v>1335.930000</v>
+        <v>1335.93</v>
       </c>
       <c r="BV20" s="1">
-        <v>-696.015000</v>
+        <v>-696.01499999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>53457.920426</v>
+        <v>53457.920425999997</v>
       </c>
       <c r="BY20" s="1">
-        <v>14.849422</v>
+        <v>14.849422000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1472.370000</v>
+        <v>1472.37</v>
       </c>
       <c r="CA20" s="1">
-        <v>-908.866000</v>
+        <v>-908.86599999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>53471.065401</v>
       </c>
       <c r="CD20" s="1">
-        <v>14.853074</v>
+        <v>14.853073999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>1827.880000</v>
+        <v>1827.88</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1413.180000</v>
+        <v>-1413.18</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>53296.153711</v>
+        <v>53296.153710999999</v>
       </c>
       <c r="B21" s="1">
         <v>14.804487</v>
       </c>
       <c r="C21" s="1">
-        <v>899.195000</v>
+        <v>899.19500000000005</v>
       </c>
       <c r="D21" s="1">
-        <v>-198.175000</v>
+        <v>-198.17500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>53306.591025</v>
+        <v>53306.591025000002</v>
       </c>
       <c r="G21" s="1">
-        <v>14.807386</v>
+        <v>14.807385999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.428000</v>
+        <v>916.428</v>
       </c>
       <c r="I21" s="1">
-        <v>-167.886000</v>
+        <v>-167.886</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>53317.060084</v>
+        <v>53317.060083999997</v>
       </c>
       <c r="L21" s="1">
-        <v>14.810294</v>
+        <v>14.810294000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>939.727000</v>
+        <v>939.72699999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.958000</v>
+        <v>-119.958</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>53327.622390</v>
+        <v>53327.622389999997</v>
       </c>
       <c r="Q21" s="1">
-        <v>14.813228</v>
+        <v>14.813228000000001</v>
       </c>
       <c r="R21" s="1">
-        <v>946.629000</v>
+        <v>946.62900000000002</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.869000</v>
+        <v>-103.869</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>53338.529911</v>
+        <v>53338.529910999998</v>
       </c>
       <c r="V21" s="1">
-        <v>14.816258</v>
+        <v>14.816257999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>953.465000</v>
+        <v>953.46500000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.818700</v>
+        <v>-88.818700000000007</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>53349.039177</v>
+        <v>53349.039176999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>14.819178</v>
+        <v>14.819178000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>960.825000</v>
+        <v>960.82500000000005</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.312300</v>
+        <v>-77.312299999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>53359.450699</v>
+        <v>53359.450699000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>14.822070</v>
+        <v>14.82207</v>
       </c>
       <c r="AG21" s="1">
-        <v>965.519000</v>
+        <v>965.51900000000001</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.182200</v>
+        <v>-75.182199999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>53369.966845</v>
+        <v>53369.966845000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>14.824991</v>
+        <v>14.824991000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>972.824000</v>
+        <v>972.82399999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.970900</v>
+        <v>-79.9709</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>53381.225542</v>
@@ -5484,195 +5900,195 @@
         <v>14.828118</v>
       </c>
       <c r="AQ21" s="1">
-        <v>981.011000</v>
+        <v>981.01099999999997</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.610400</v>
+        <v>-91.610399999999998</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>53392.321071</v>
+        <v>53392.321070999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>14.831200</v>
+        <v>14.831200000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>990.992000</v>
+        <v>990.99199999999996</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.350000</v>
+        <v>-109.35</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>53403.787057</v>
+        <v>53403.787057000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>14.834385</v>
+        <v>14.834384999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>999.372000</v>
+        <v>999.37199999999996</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.053000</v>
+        <v>-125.053</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>53414.828033</v>
+        <v>53414.828032999998</v>
       </c>
       <c r="BE21" s="1">
-        <v>14.837452</v>
+        <v>14.837452000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG21" s="1">
-        <v>-196.965000</v>
+        <v>-196.965</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>53425.935908</v>
+        <v>53425.935907999999</v>
       </c>
       <c r="BJ21" s="1">
         <v>14.840538</v>
       </c>
       <c r="BK21" s="1">
-        <v>1105.720000</v>
+        <v>1105.72</v>
       </c>
       <c r="BL21" s="1">
-        <v>-313.109000</v>
+        <v>-313.10899999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>53436.898484</v>
+        <v>53436.898483999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>14.843583</v>
+        <v>14.843583000000001</v>
       </c>
       <c r="BP21" s="1">
-        <v>1214.390000</v>
+        <v>1214.3900000000001</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-495.757000</v>
+        <v>-495.75700000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>53447.528248</v>
+        <v>53447.528248000002</v>
       </c>
       <c r="BT21" s="1">
         <v>14.846536</v>
       </c>
       <c r="BU21" s="1">
-        <v>1335.960000</v>
+        <v>1335.96</v>
       </c>
       <c r="BV21" s="1">
-        <v>-696.151000</v>
+        <v>-696.15099999999995</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>53458.648586</v>
+        <v>53458.648586000003</v>
       </c>
       <c r="BY21" s="1">
         <v>14.849625</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1472.260000</v>
+        <v>1472.26</v>
       </c>
       <c r="CA21" s="1">
-        <v>-908.958000</v>
+        <v>-908.95799999999997</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>53471.304967</v>
+        <v>53471.304966999996</v>
       </c>
       <c r="CD21" s="1">
-        <v>14.853140</v>
+        <v>14.85314</v>
       </c>
       <c r="CE21" s="1">
-        <v>1827.640000</v>
+        <v>1827.64</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1414.560000</v>
+        <v>-1414.56</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>53296.492975</v>
+        <v>53296.492975000001</v>
       </c>
       <c r="B22" s="1">
-        <v>14.804581</v>
+        <v>14.804581000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>898.892000</v>
+        <v>898.89200000000005</v>
       </c>
       <c r="D22" s="1">
-        <v>-198.099000</v>
+        <v>-198.09899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>53306.935776</v>
+        <v>53306.935775999998</v>
       </c>
       <c r="G22" s="1">
         <v>14.807482</v>
       </c>
       <c r="H22" s="1">
-        <v>916.369000</v>
+        <v>916.36900000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-167.914000</v>
+        <v>-167.91399999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>53317.471764</v>
+        <v>53317.471764000002</v>
       </c>
       <c r="L22" s="1">
         <v>14.810409</v>
       </c>
       <c r="M22" s="1">
-        <v>939.758000</v>
+        <v>939.75800000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.960000</v>
+        <v>-119.96</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>53328.315797</v>
+        <v>53328.315797000003</v>
       </c>
       <c r="Q22" s="1">
         <v>14.813421</v>
       </c>
       <c r="R22" s="1">
-        <v>946.611000</v>
+        <v>946.61099999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.821000</v>
+        <v>-103.821</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>53338.808696</v>
@@ -5681,210 +6097,210 @@
         <v>14.816336</v>
       </c>
       <c r="W22" s="1">
-        <v>953.482000</v>
+        <v>953.48199999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.891200</v>
+        <v>-88.891199999999998</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>53349.389816</v>
+        <v>53349.389816000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>14.819275</v>
+        <v>14.819274999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>960.764000</v>
+        <v>960.76400000000001</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.354400</v>
+        <v>-77.354399999999998</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>53359.794890</v>
+        <v>53359.794889999997</v>
       </c>
       <c r="AF22" s="1">
         <v>14.822165</v>
       </c>
       <c r="AG22" s="1">
-        <v>965.541000</v>
+        <v>965.54100000000005</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.176800</v>
+        <v>-75.1768</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>53370.319005</v>
+        <v>53370.319004999998</v>
       </c>
       <c r="AK22" s="1">
         <v>14.825089</v>
       </c>
       <c r="AL22" s="1">
-        <v>972.815000</v>
+        <v>972.81500000000005</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.972800</v>
+        <v>-79.972800000000007</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>53381.953662</v>
       </c>
       <c r="AP22" s="1">
-        <v>14.828320</v>
+        <v>14.82832</v>
       </c>
       <c r="AQ22" s="1">
-        <v>980.985000</v>
+        <v>980.98500000000001</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.586100</v>
+        <v>-91.586100000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>53393.059086</v>
+        <v>53393.059086000001</v>
       </c>
       <c r="AU22" s="1">
         <v>14.831405</v>
       </c>
       <c r="AV22" s="1">
-        <v>990.987000</v>
+        <v>990.98699999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.352000</v>
+        <v>-109.352</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>53404.145169</v>
+        <v>53404.145169000003</v>
       </c>
       <c r="AZ22" s="1">
-        <v>14.834485</v>
+        <v>14.834485000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>999.323000</v>
+        <v>999.32299999999998</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>53415.211906</v>
+        <v>53415.211905999997</v>
       </c>
       <c r="BE22" s="1">
-        <v>14.837559</v>
+        <v>14.837559000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1038.490000</v>
+        <v>1038.49</v>
       </c>
       <c r="BG22" s="1">
-        <v>-196.969000</v>
+        <v>-196.96899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>53426.311874</v>
+        <v>53426.311873999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>14.840642</v>
+        <v>14.840642000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1105.770000</v>
+        <v>1105.77</v>
       </c>
       <c r="BL22" s="1">
-        <v>-313.099000</v>
+        <v>-313.09899999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>53437.606773</v>
       </c>
       <c r="BO22" s="1">
-        <v>14.843780</v>
+        <v>14.843780000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1214.360000</v>
+        <v>1214.3599999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-495.713000</v>
+        <v>-495.71300000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>53448.261831</v>
+        <v>53448.261831000003</v>
       </c>
       <c r="BT22" s="1">
-        <v>14.846739</v>
+        <v>14.846738999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1336.040000</v>
+        <v>1336.04</v>
       </c>
       <c r="BV22" s="1">
-        <v>-696.183000</v>
+        <v>-696.18299999999999</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>53458.825624</v>
+        <v>53458.825623999997</v>
       </c>
       <c r="BY22" s="1">
         <v>14.849674</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1472.210000</v>
+        <v>1472.21</v>
       </c>
       <c r="CA22" s="1">
-        <v>-908.826000</v>
+        <v>-908.82600000000002</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>53471.837671</v>
+        <v>53471.837671000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>14.853288</v>
+        <v>14.853287999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>1829.120000</v>
+        <v>1829.12</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1413.770000</v>
+        <v>-1413.77</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>53296.919037</v>
       </c>
       <c r="B23" s="1">
-        <v>14.804700</v>
+        <v>14.8047</v>
       </c>
       <c r="C23" s="1">
-        <v>898.748000</v>
+        <v>898.74800000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-198.336000</v>
+        <v>-198.33600000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>53307.354368</v>
@@ -5893,28 +6309,28 @@
         <v>14.807598</v>
       </c>
       <c r="H23" s="1">
-        <v>916.210000</v>
+        <v>916.21</v>
       </c>
       <c r="I23" s="1">
-        <v>-167.668000</v>
+        <v>-167.66800000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>53317.769393</v>
+        <v>53317.769393000002</v>
       </c>
       <c r="L23" s="1">
-        <v>14.810491</v>
+        <v>14.810491000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>939.682000</v>
+        <v>939.68200000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.886000</v>
+        <v>-119.886</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>53328.657539</v>
@@ -5923,58 +6339,58 @@
         <v>14.813516</v>
       </c>
       <c r="R23" s="1">
-        <v>946.637000</v>
+        <v>946.63699999999994</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.841000</v>
+        <v>-103.84099999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>53339.152885</v>
+        <v>53339.152885000003</v>
       </c>
       <c r="V23" s="1">
         <v>14.816431</v>
       </c>
       <c r="W23" s="1">
-        <v>953.484000</v>
+        <v>953.48400000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.893400</v>
+        <v>-88.8934</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>53349.736055</v>
+        <v>53349.736055000001</v>
       </c>
       <c r="AA23" s="1">
         <v>14.819371</v>
       </c>
       <c r="AB23" s="1">
-        <v>960.713000</v>
+        <v>960.71299999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.358600</v>
+        <v>-77.358599999999996</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>53360.137130</v>
+        <v>53360.137130000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>14.822260</v>
+        <v>14.82226</v>
       </c>
       <c r="AG23" s="1">
-        <v>965.578000</v>
+        <v>965.57799999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.184600</v>
+        <v>-75.184600000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>53371.012939</v>
@@ -5983,225 +6399,225 @@
         <v>14.825281</v>
       </c>
       <c r="AL23" s="1">
-        <v>972.850000</v>
+        <v>972.85</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.949800</v>
+        <v>-79.949799999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>53382.328650</v>
+        <v>53382.328650000003</v>
       </c>
       <c r="AP23" s="1">
-        <v>14.828425</v>
+        <v>14.828424999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>981.008000</v>
+        <v>981.00800000000004</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.597400</v>
+        <v>-91.597399999999993</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>53393.441998</v>
+        <v>53393.441998000002</v>
       </c>
       <c r="AU23" s="1">
         <v>14.831512</v>
       </c>
       <c r="AV23" s="1">
-        <v>990.992000</v>
+        <v>990.99199999999996</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.368000</v>
+        <v>-109.36799999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>53404.504271</v>
+        <v>53404.504270999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>14.834585</v>
+        <v>14.834585000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>999.363000</v>
+        <v>999.36300000000006</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.056000</v>
+        <v>-125.056</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>53415.881046</v>
+        <v>53415.881046000002</v>
       </c>
       <c r="BE23" s="1">
         <v>14.837745</v>
       </c>
       <c r="BF23" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG23" s="1">
-        <v>-196.947000</v>
+        <v>-196.947</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>53427.003979</v>
+        <v>53427.003979000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>14.840834</v>
+        <v>14.840833999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1105.740000</v>
+        <v>1105.74</v>
       </c>
       <c r="BL23" s="1">
-        <v>-313.088000</v>
+        <v>-313.08800000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>53437.717875</v>
+        <v>53437.717875000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>14.843811</v>
+        <v>14.843811000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1214.370000</v>
+        <v>1214.3699999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-495.656000</v>
+        <v>-495.65600000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>53448.382881</v>
+        <v>53448.382880999998</v>
       </c>
       <c r="BT23" s="1">
-        <v>14.846773</v>
+        <v>14.846773000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1336.070000</v>
+        <v>1336.07</v>
       </c>
       <c r="BV23" s="1">
-        <v>-696.160000</v>
+        <v>-696.16</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>53459.249208</v>
+        <v>53459.249208000001</v>
       </c>
       <c r="BY23" s="1">
         <v>14.849791</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1472.280000</v>
+        <v>1472.28</v>
       </c>
       <c r="CA23" s="1">
-        <v>-908.867000</v>
+        <v>-908.86699999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>53472.377319</v>
+        <v>53472.377318999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>14.853438</v>
+        <v>14.853438000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>1827.390000</v>
+        <v>1827.39</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1413.820000</v>
+        <v>-1413.82</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>53297.185390</v>
+        <v>53297.185389999999</v>
       </c>
       <c r="B24" s="1">
         <v>14.804774</v>
       </c>
       <c r="C24" s="1">
-        <v>898.899000</v>
+        <v>898.899</v>
       </c>
       <c r="D24" s="1">
-        <v>-198.063000</v>
+        <v>-198.06299999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>53307.632129</v>
+        <v>53307.632128999998</v>
       </c>
       <c r="G24" s="1">
-        <v>14.807676</v>
+        <v>14.807676000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>916.711000</v>
+        <v>916.71100000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-167.851000</v>
+        <v>-167.851</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>53318.116563</v>
+        <v>53318.116563000003</v>
       </c>
       <c r="L24" s="1">
-        <v>14.810588</v>
+        <v>14.810587999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>939.531000</v>
+        <v>939.53099999999995</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.848000</v>
+        <v>-119.848</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>53329.015651</v>
+        <v>53329.015651000002</v>
       </c>
       <c r="Q24" s="1">
         <v>14.813615</v>
       </c>
       <c r="R24" s="1">
-        <v>946.677000</v>
+        <v>946.67700000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.854000</v>
+        <v>-103.854</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>53339.496614</v>
+        <v>53339.496614000003</v>
       </c>
       <c r="V24" s="1">
-        <v>14.816527</v>
+        <v>14.816527000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>953.353000</v>
+        <v>953.35299999999995</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.887100</v>
+        <v>-88.887100000000004</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>53350.431912</v>
@@ -6210,13 +6626,13 @@
         <v>14.819564</v>
       </c>
       <c r="AB24" s="1">
-        <v>960.792000</v>
+        <v>960.79200000000003</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.315200</v>
+        <v>-77.315200000000004</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>53360.825588</v>
@@ -6225,58 +6641,58 @@
         <v>14.822452</v>
       </c>
       <c r="AG24" s="1">
-        <v>965.535000</v>
+        <v>965.53499999999997</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.187300</v>
+        <v>-75.187299999999993</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>53371.362091</v>
+        <v>53371.362091000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>14.825378</v>
+        <v>14.825378000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>972.817000</v>
+        <v>972.81700000000001</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.947500</v>
+        <v>-79.947500000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>53382.691081</v>
+        <v>53382.691080999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>14.828525</v>
+        <v>14.828525000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>981.010000</v>
+        <v>981.01</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.613600</v>
+        <v>-91.613600000000005</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>53393.805069</v>
+        <v>53393.805069000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>14.831613</v>
+        <v>14.831613000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>990.971000</v>
+        <v>990.971</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.388000</v>
+        <v>-109.38800000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>53405.177376</v>
@@ -6285,572 +6701,572 @@
         <v>14.834771</v>
       </c>
       <c r="BA24" s="1">
-        <v>999.345000</v>
+        <v>999.34500000000003</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.045000</v>
+        <v>-125.045</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>53416.298677</v>
+        <v>53416.298676999999</v>
       </c>
       <c r="BE24" s="1">
         <v>14.837861</v>
       </c>
       <c r="BF24" s="1">
-        <v>1038.500000</v>
+        <v>1038.5</v>
       </c>
       <c r="BG24" s="1">
-        <v>-196.965000</v>
+        <v>-196.965</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>53427.439281</v>
+        <v>53427.439280999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>14.840955</v>
+        <v>14.840954999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1105.740000</v>
+        <v>1105.74</v>
       </c>
       <c r="BL24" s="1">
-        <v>-313.106000</v>
+        <v>-313.10599999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>53438.141491</v>
+        <v>53438.141491000002</v>
       </c>
       <c r="BO24" s="1">
         <v>14.843928</v>
       </c>
       <c r="BP24" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-495.664000</v>
+        <v>-495.66399999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>53448.809909</v>
+        <v>53448.809909000003</v>
       </c>
       <c r="BT24" s="1">
         <v>14.846892</v>
       </c>
       <c r="BU24" s="1">
-        <v>1336.140000</v>
+        <v>1336.14</v>
       </c>
       <c r="BV24" s="1">
-        <v>-696.183000</v>
+        <v>-696.18299999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>53459.696103</v>
+        <v>53459.696103000002</v>
       </c>
       <c r="BY24" s="1">
         <v>14.849916</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1472.270000</v>
+        <v>1472.27</v>
       </c>
       <c r="CA24" s="1">
-        <v>-908.986000</v>
+        <v>-908.98599999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>53472.917957</v>
+        <v>53472.917956999998</v>
       </c>
       <c r="CD24" s="1">
         <v>14.853588</v>
       </c>
       <c r="CE24" s="1">
-        <v>1828.890000</v>
+        <v>1828.89</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1414.560000</v>
+        <v>-1414.56</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>53297.526638</v>
+        <v>53297.526638000003</v>
       </c>
       <c r="B25" s="1">
         <v>14.804869</v>
       </c>
       <c r="C25" s="1">
-        <v>898.977000</v>
+        <v>898.97699999999998</v>
       </c>
       <c r="D25" s="1">
-        <v>-198.355000</v>
+        <v>-198.35499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>53307.974895</v>
+        <v>53307.974894999999</v>
       </c>
       <c r="G25" s="1">
-        <v>14.807771</v>
+        <v>14.807771000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>916.503000</v>
+        <v>916.50300000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-167.951000</v>
+        <v>-167.95099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>53318.461282</v>
+        <v>53318.461281999997</v>
       </c>
       <c r="L25" s="1">
         <v>14.810684</v>
       </c>
       <c r="M25" s="1">
-        <v>939.657000</v>
+        <v>939.65700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.857000</v>
+        <v>-119.857</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>53329.710546</v>
+        <v>53329.710546000002</v>
       </c>
       <c r="Q25" s="1">
         <v>14.813808</v>
       </c>
       <c r="R25" s="1">
-        <v>946.617000</v>
+        <v>946.61699999999996</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.910000</v>
+        <v>-103.91</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>53340.185556</v>
+        <v>53340.185555999997</v>
       </c>
       <c r="V25" s="1">
         <v>14.816718</v>
       </c>
       <c r="W25" s="1">
-        <v>953.373000</v>
+        <v>953.37300000000005</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.028000</v>
+        <v>-89.028000000000006</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>53350.784603</v>
       </c>
       <c r="AA25" s="1">
-        <v>14.819662</v>
+        <v>14.819661999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>960.703000</v>
+        <v>960.70299999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.390600</v>
+        <v>-77.390600000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>53361.164842</v>
+        <v>53361.164841999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>14.822546</v>
+        <v>14.822546000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>965.591000</v>
+        <v>965.59100000000001</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.110000</v>
+        <v>-75.11</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>53371.710780</v>
+        <v>53371.710780000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>14.825475</v>
+        <v>14.825475000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>972.841000</v>
+        <v>972.84100000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.950200</v>
+        <v>-79.950199999999995</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>53383.362795</v>
+        <v>53383.362795000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>14.828712</v>
+        <v>14.828711999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>980.990000</v>
+        <v>980.99</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.600300</v>
+        <v>-91.600300000000004</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>53394.489549</v>
+        <v>53394.489548999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>14.831803</v>
+        <v>14.831803000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>990.973000</v>
+        <v>990.97299999999996</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.371000</v>
+        <v>-109.371</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>53405.580590</v>
+        <v>53405.580589999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>14.834883</v>
       </c>
       <c r="BA25" s="1">
-        <v>999.334000</v>
+        <v>999.33399999999995</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.064000</v>
+        <v>-125.06399999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>53416.688217</v>
+        <v>53416.688217000003</v>
       </c>
       <c r="BE25" s="1">
-        <v>14.837969</v>
+        <v>14.837968999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1038.510000</v>
+        <v>1038.51</v>
       </c>
       <c r="BG25" s="1">
-        <v>-196.935000</v>
+        <v>-196.935</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>53427.812800</v>
+        <v>53427.8128</v>
       </c>
       <c r="BJ25" s="1">
         <v>14.841059</v>
       </c>
       <c r="BK25" s="1">
-        <v>1105.740000</v>
+        <v>1105.74</v>
       </c>
       <c r="BL25" s="1">
-        <v>-313.042000</v>
+        <v>-313.04199999999997</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>53438.538754</v>
+        <v>53438.538754000001</v>
       </c>
       <c r="BO25" s="1">
         <v>14.844039</v>
       </c>
       <c r="BP25" s="1">
-        <v>1214.410000</v>
+        <v>1214.4100000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-495.707000</v>
+        <v>-495.70699999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>53449.228533</v>
+        <v>53449.228533000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>14.847008</v>
+        <v>14.847008000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>1336.230000</v>
+        <v>1336.23</v>
       </c>
       <c r="BV25" s="1">
-        <v>-696.188000</v>
+        <v>-696.18799999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>53460.126630</v>
+        <v>53460.126629999999</v>
       </c>
       <c r="BY25" s="1">
         <v>14.850035</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1472.320000</v>
+        <v>1472.32</v>
       </c>
       <c r="CA25" s="1">
-        <v>-908.828000</v>
+        <v>-908.82799999999997</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>53473.460581</v>
+        <v>53473.460580999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>14.853739</v>
+        <v>14.853738999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1828.220000</v>
+        <v>1828.22</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1413.310000</v>
+        <v>-1413.31</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>53297.864910</v>
+        <v>53297.864909999997</v>
       </c>
       <c r="B26" s="1">
         <v>14.804962</v>
       </c>
       <c r="C26" s="1">
-        <v>898.915000</v>
+        <v>898.91499999999996</v>
       </c>
       <c r="D26" s="1">
-        <v>-198.236000</v>
+        <v>-198.23599999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>53308.319583</v>
+        <v>53308.319582999997</v>
       </c>
       <c r="G26" s="1">
         <v>14.807867</v>
       </c>
       <c r="H26" s="1">
-        <v>916.361000</v>
+        <v>916.36099999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-167.785000</v>
+        <v>-167.785</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>53319.152736</v>
+        <v>53319.152735999996</v>
       </c>
       <c r="L26" s="1">
         <v>14.810876</v>
       </c>
       <c r="M26" s="1">
-        <v>939.714000</v>
+        <v>939.71400000000006</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.931000</v>
+        <v>-119.931</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>53330.059235</v>
+        <v>53330.059235000001</v>
       </c>
       <c r="Q26" s="1">
         <v>14.813905</v>
       </c>
       <c r="R26" s="1">
-        <v>946.639000</v>
+        <v>946.63900000000001</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.859000</v>
+        <v>-103.85899999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>53340.528317</v>
+        <v>53340.528316999997</v>
       </c>
       <c r="V26" s="1">
         <v>14.816813</v>
       </c>
       <c r="W26" s="1">
-        <v>953.480000</v>
+        <v>953.48</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.956600</v>
+        <v>-88.956599999999995</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>53351.132758</v>
       </c>
       <c r="AA26" s="1">
-        <v>14.819759</v>
+        <v>14.819758999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>960.682000</v>
+        <v>960.68200000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.348300</v>
+        <v>-77.348299999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>53361.510593</v>
+        <v>53361.510592999999</v>
       </c>
       <c r="AF26" s="1">
         <v>14.822642</v>
       </c>
       <c r="AG26" s="1">
-        <v>965.692000</v>
+        <v>965.69200000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.140300</v>
+        <v>-75.140299999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>53372.370458</v>
+        <v>53372.370457999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>14.825658</v>
+        <v>14.825658000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>972.815000</v>
+        <v>972.81500000000005</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.975900</v>
+        <v>-79.975899999999996</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>53383.772492</v>
+        <v>53383.772491999996</v>
       </c>
       <c r="AP26" s="1">
-        <v>14.828826</v>
+        <v>14.828825999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>981.012000</v>
+        <v>981.01199999999994</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.610700</v>
+        <v>-91.610699999999994</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>53394.925055</v>
       </c>
       <c r="AU26" s="1">
-        <v>14.831924</v>
+        <v>14.831924000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>990.979000</v>
+        <v>990.97900000000004</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.364000</v>
+        <v>-109.364</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>53405.966973</v>
+        <v>53405.966973000002</v>
       </c>
       <c r="AZ26" s="1">
         <v>14.834991</v>
       </c>
       <c r="BA26" s="1">
-        <v>999.358000</v>
+        <v>999.35799999999995</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.025000</v>
+        <v>-125.02500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>53417.050111</v>
+        <v>53417.050110999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>14.838069</v>
+        <v>14.838069000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1038.520000</v>
+        <v>1038.52</v>
       </c>
       <c r="BG26" s="1">
-        <v>-196.952000</v>
+        <v>-196.952</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>53428.190259</v>
+        <v>53428.190259000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>14.841164</v>
+        <v>14.841163999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1105.740000</v>
+        <v>1105.74</v>
       </c>
       <c r="BL26" s="1">
-        <v>-313.094000</v>
+        <v>-313.09399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>53438.959401</v>
       </c>
       <c r="BO26" s="1">
-        <v>14.844155</v>
+        <v>14.844155000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1214.380000</v>
+        <v>1214.3800000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-495.691000</v>
+        <v>-495.69099999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>53449.673445</v>
@@ -6859,45 +7275,46 @@
         <v>14.847132</v>
       </c>
       <c r="BU26" s="1">
-        <v>1336.310000</v>
+        <v>1336.31</v>
       </c>
       <c r="BV26" s="1">
-        <v>-696.196000</v>
+        <v>-696.19600000000003</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>53460.550992</v>
+        <v>53460.550991999997</v>
       </c>
       <c r="BY26" s="1">
-        <v>14.850153</v>
+        <v>14.850153000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1472.340000</v>
+        <v>1472.34</v>
       </c>
       <c r="CA26" s="1">
-        <v>-908.912000</v>
+        <v>-908.91200000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>53473.999236</v>
+        <v>53473.999236000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>14.853889</v>
+        <v>14.853889000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1827.840000</v>
+        <v>1827.84</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1414.630000</v>
+        <v>-1414.63</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>